--- a/src/auth/授权规则收集表汇总1.0.xlsx
+++ b/src/auth/授权规则收集表汇总1.0.xlsx
@@ -4943,11 +4943,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -5058,6 +5058,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -5065,32 +5073,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5105,22 +5097,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5134,8 +5126,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5149,28 +5188,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -5178,27 +5195,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5241,60 +5241,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5307,7 +5253,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5319,13 +5301,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5337,67 +5403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5409,19 +5415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5487,21 +5487,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5513,50 +5498,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5584,6 +5525,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5592,10 +5592,10 @@
     <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5604,133 +5604,133 @@
     <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6586,13 +6586,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AZ345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I333" sqref="I333"/>
+      <selection pane="bottomLeft" activeCell="R318" sqref="R318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6681,7 +6681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:21">
+    <row r="2" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A2" s="26" t="s">
         <v>21</v>
       </c>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="U2" s="72"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:21">
+    <row r="3" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A3" s="26" t="s">
         <v>21</v>
       </c>
@@ -6793,7 +6793,7 @@
       <c r="T3" s="26"/>
       <c r="U3" s="72"/>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:21">
+    <row r="4" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
@@ -6848,7 +6848,7 @@
       <c r="T4" s="26"/>
       <c r="U4" s="72"/>
     </row>
-    <row r="5" ht="18" customHeight="1" spans="1:21">
+    <row r="5" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A5" s="26" t="s">
         <v>21</v>
       </c>
@@ -6903,7 +6903,7 @@
       <c r="T5" s="26"/>
       <c r="U5" s="72"/>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:21">
+    <row r="6" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A6" s="26" t="s">
         <v>21</v>
       </c>
@@ -6958,7 +6958,7 @@
       <c r="T6" s="26"/>
       <c r="U6" s="72"/>
     </row>
-    <row r="7" ht="18" customHeight="1" spans="1:21">
+    <row r="7" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A7" s="26" t="s">
         <v>21</v>
       </c>
@@ -7013,7 +7013,7 @@
       <c r="T7" s="26"/>
       <c r="U7" s="72"/>
     </row>
-    <row r="8" ht="18" customHeight="1" spans="1:21">
+    <row r="8" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A8" s="26" t="s">
         <v>21</v>
       </c>
@@ -7068,7 +7068,7 @@
       <c r="T8" s="26"/>
       <c r="U8" s="72"/>
     </row>
-    <row r="9" ht="18" customHeight="1" spans="1:21">
+    <row r="9" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A9" s="26" t="s">
         <v>21</v>
       </c>
@@ -7123,7 +7123,7 @@
       <c r="T9" s="26"/>
       <c r="U9" s="72"/>
     </row>
-    <row r="10" ht="18" customHeight="1" spans="1:21">
+    <row r="10" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A10" s="26" t="s">
         <v>21</v>
       </c>
@@ -7178,7 +7178,7 @@
       <c r="T10" s="26"/>
       <c r="U10" s="72"/>
     </row>
-    <row r="11" ht="18" customHeight="1" spans="1:21">
+    <row r="11" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A11" s="26" t="s">
         <v>21</v>
       </c>
@@ -7233,7 +7233,7 @@
       <c r="T11" s="26"/>
       <c r="U11" s="72"/>
     </row>
-    <row r="12" ht="18" customHeight="1" spans="1:21">
+    <row r="12" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A12" s="26" t="s">
         <v>21</v>
       </c>
@@ -7288,7 +7288,7 @@
       <c r="T12" s="26"/>
       <c r="U12" s="72"/>
     </row>
-    <row r="13" ht="18" customHeight="1" spans="1:21">
+    <row r="13" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A13" s="26" t="s">
         <v>21</v>
       </c>
@@ -7343,7 +7343,7 @@
       <c r="T13" s="26"/>
       <c r="U13" s="72"/>
     </row>
-    <row r="14" ht="18" customHeight="1" spans="1:21">
+    <row r="14" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A14" s="26" t="s">
         <v>21</v>
       </c>
@@ -7398,7 +7398,7 @@
       <c r="T14" s="26"/>
       <c r="U14" s="72"/>
     </row>
-    <row r="15" ht="18" customHeight="1" spans="1:21">
+    <row r="15" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A15" s="26" t="s">
         <v>21</v>
       </c>
@@ -7453,7 +7453,7 @@
       <c r="T15" s="26"/>
       <c r="U15" s="72"/>
     </row>
-    <row r="16" ht="18" customHeight="1" spans="1:21">
+    <row r="16" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A16" s="26" t="s">
         <v>21</v>
       </c>
@@ -7508,7 +7508,7 @@
       <c r="T16" s="26"/>
       <c r="U16" s="72"/>
     </row>
-    <row r="17" ht="18" customHeight="1" spans="1:21">
+    <row r="17" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A17" s="26" t="s">
         <v>21</v>
       </c>
@@ -7563,7 +7563,7 @@
       <c r="T17" s="26"/>
       <c r="U17" s="72"/>
     </row>
-    <row r="18" ht="18" customHeight="1" spans="1:21">
+    <row r="18" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A18" s="26" t="s">
         <v>21</v>
       </c>
@@ -7618,7 +7618,7 @@
       <c r="T18" s="26"/>
       <c r="U18" s="72"/>
     </row>
-    <row r="19" ht="18" customHeight="1" spans="1:21">
+    <row r="19" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A19" s="26" t="s">
         <v>21</v>
       </c>
@@ -7675,7 +7675,7 @@
       </c>
       <c r="U19" s="72"/>
     </row>
-    <row r="20" ht="18" customHeight="1" spans="1:21">
+    <row r="20" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A20" s="26" t="s">
         <v>21</v>
       </c>
@@ -7730,7 +7730,7 @@
       <c r="T20" s="26"/>
       <c r="U20" s="72"/>
     </row>
-    <row r="21" ht="18" customHeight="1" spans="1:21">
+    <row r="21" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A21" s="26" t="s">
         <v>21</v>
       </c>
@@ -7785,7 +7785,7 @@
       <c r="T21" s="26"/>
       <c r="U21" s="72"/>
     </row>
-    <row r="22" ht="18" customHeight="1" spans="1:21">
+    <row r="22" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A22" s="26" t="s">
         <v>21</v>
       </c>
@@ -7840,7 +7840,7 @@
       <c r="T22" s="26"/>
       <c r="U22" s="72"/>
     </row>
-    <row r="23" ht="18" customHeight="1" spans="1:21">
+    <row r="23" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A23" s="26" t="s">
         <v>21</v>
       </c>
@@ -7895,7 +7895,7 @@
       <c r="T23" s="26"/>
       <c r="U23" s="72"/>
     </row>
-    <row r="24" ht="18" customHeight="1" spans="1:21">
+    <row r="24" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A24" s="26" t="s">
         <v>21</v>
       </c>
@@ -7950,7 +7950,7 @@
       <c r="T24" s="26"/>
       <c r="U24" s="72"/>
     </row>
-    <row r="25" ht="18" customHeight="1" spans="1:21">
+    <row r="25" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A25" s="26" t="s">
         <v>21</v>
       </c>
@@ -8005,7 +8005,7 @@
       <c r="T25" s="26"/>
       <c r="U25" s="72"/>
     </row>
-    <row r="26" ht="18" customHeight="1" spans="1:21">
+    <row r="26" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A26" s="26" t="s">
         <v>21</v>
       </c>
@@ -8060,7 +8060,7 @@
       <c r="T26" s="26"/>
       <c r="U26" s="72"/>
     </row>
-    <row r="27" ht="18" customHeight="1" spans="1:21">
+    <row r="27" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A27" s="26" t="s">
         <v>21</v>
       </c>
@@ -8115,7 +8115,7 @@
       <c r="T27" s="26"/>
       <c r="U27" s="72"/>
     </row>
-    <row r="28" ht="18" customHeight="1" spans="1:21">
+    <row r="28" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A28" s="26" t="s">
         <v>21</v>
       </c>
@@ -8171,7 +8171,7 @@
       <c r="T28" s="26"/>
       <c r="U28" s="72"/>
     </row>
-    <row r="29" ht="18" customHeight="1" spans="1:21">
+    <row r="29" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A29" s="26" t="s">
         <v>21</v>
       </c>
@@ -8227,7 +8227,7 @@
       <c r="T29" s="26"/>
       <c r="U29" s="72"/>
     </row>
-    <row r="30" ht="18" customHeight="1" spans="1:21">
+    <row r="30" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A30" s="26" t="s">
         <v>21</v>
       </c>
@@ -8282,7 +8282,7 @@
       <c r="T30" s="26"/>
       <c r="U30" s="72"/>
     </row>
-    <row r="31" ht="18" customHeight="1" spans="1:21">
+    <row r="31" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A31" s="26" t="s">
         <v>21</v>
       </c>
@@ -8337,7 +8337,7 @@
       <c r="T31" s="26"/>
       <c r="U31" s="72"/>
     </row>
-    <row r="32" ht="18" customHeight="1" spans="1:21">
+    <row r="32" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A32" s="26" t="s">
         <v>21</v>
       </c>
@@ -8392,7 +8392,7 @@
       <c r="T32" s="26"/>
       <c r="U32" s="72"/>
     </row>
-    <row r="33" ht="18" customHeight="1" spans="1:21">
+    <row r="33" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A33" s="26" t="s">
         <v>21</v>
       </c>
@@ -8447,7 +8447,7 @@
       <c r="T33" s="26"/>
       <c r="U33" s="72"/>
     </row>
-    <row r="34" ht="18" customHeight="1" spans="1:21">
+    <row r="34" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A34" s="26" t="s">
         <v>21</v>
       </c>
@@ -8502,7 +8502,7 @@
       <c r="T34" s="26"/>
       <c r="U34" s="72"/>
     </row>
-    <row r="35" ht="18" customHeight="1" spans="1:21">
+    <row r="35" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A35" s="26" t="s">
         <v>21</v>
       </c>
@@ -8557,7 +8557,7 @@
       <c r="T35" s="26"/>
       <c r="U35" s="72"/>
     </row>
-    <row r="36" ht="18" customHeight="1" spans="1:21">
+    <row r="36" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A36" s="26" t="s">
         <v>21</v>
       </c>
@@ -8614,7 +8614,7 @@
       </c>
       <c r="U36" s="72"/>
     </row>
-    <row r="37" ht="18" customHeight="1" spans="1:21">
+    <row r="37" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A37" s="26" t="s">
         <v>21</v>
       </c>
@@ -8671,7 +8671,7 @@
       </c>
       <c r="U37" s="72"/>
     </row>
-    <row r="38" ht="18" customHeight="1" spans="1:21">
+    <row r="38" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A38" s="26" t="s">
         <v>21</v>
       </c>
@@ -8728,7 +8728,7 @@
       </c>
       <c r="U38" s="72"/>
     </row>
-    <row r="39" ht="18" customHeight="1" spans="1:21">
+    <row r="39" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A39" s="26" t="s">
         <v>21</v>
       </c>
@@ -8785,7 +8785,7 @@
       </c>
       <c r="U39" s="72"/>
     </row>
-    <row r="40" s="37" customFormat="1" ht="18" customHeight="1" spans="1:21">
+    <row r="40" s="37" customFormat="1" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A40" s="60" t="s">
         <v>21</v>
       </c>
@@ -8840,7 +8840,7 @@
       <c r="T40" s="60"/>
       <c r="U40" s="73"/>
     </row>
-    <row r="41" ht="18" customHeight="1" spans="1:21">
+    <row r="41" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A41" s="26" t="s">
         <v>21</v>
       </c>
@@ -8897,7 +8897,7 @@
       </c>
       <c r="U41" s="72"/>
     </row>
-    <row r="42" ht="18" customHeight="1" spans="1:21">
+    <row r="42" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A42" s="26" t="s">
         <v>21</v>
       </c>
@@ -9003,7 +9003,7 @@
       </c>
       <c r="U43" s="72"/>
     </row>
-    <row r="44" ht="18" customHeight="1" spans="1:21">
+    <row r="44" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A44" s="26" t="s">
         <v>21</v>
       </c>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="U44" s="72"/>
     </row>
-    <row r="45" ht="18" customHeight="1" spans="1:21">
+    <row r="45" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A45" s="26" t="s">
         <v>21</v>
       </c>
@@ -9117,7 +9117,7 @@
       </c>
       <c r="U45" s="72"/>
     </row>
-    <row r="46" ht="18" customHeight="1" spans="1:21">
+    <row r="46" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A46" s="26" t="s">
         <v>21</v>
       </c>
@@ -9174,7 +9174,7 @@
       </c>
       <c r="U46" s="72"/>
     </row>
-    <row r="47" ht="18" customHeight="1" spans="1:21">
+    <row r="47" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A47" s="26" t="s">
         <v>21</v>
       </c>
@@ -9231,7 +9231,7 @@
       </c>
       <c r="U47" s="72"/>
     </row>
-    <row r="48" ht="18" customHeight="1" spans="1:21">
+    <row r="48" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A48" s="26" t="s">
         <v>21</v>
       </c>
@@ -9288,7 +9288,7 @@
       </c>
       <c r="U48" s="72"/>
     </row>
-    <row r="49" s="37" customFormat="1" ht="18" customHeight="1" spans="1:21">
+    <row r="49" s="37" customFormat="1" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A49" s="60" t="s">
         <v>21</v>
       </c>
@@ -9343,7 +9343,7 @@
       <c r="T49" s="60"/>
       <c r="U49" s="73"/>
     </row>
-    <row r="50" ht="18" customHeight="1" spans="1:21">
+    <row r="50" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A50" s="26" t="s">
         <v>21</v>
       </c>
@@ -9400,7 +9400,7 @@
       </c>
       <c r="U50" s="72"/>
     </row>
-    <row r="51" ht="18" customHeight="1" spans="1:21">
+    <row r="51" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A51" s="26" t="s">
         <v>21</v>
       </c>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="U51" s="72"/>
     </row>
-    <row r="52" s="37" customFormat="1" ht="18" customHeight="1" spans="1:21">
+    <row r="52" s="37" customFormat="1" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A52" s="60" t="s">
         <v>21</v>
       </c>
@@ -9512,7 +9512,7 @@
       <c r="T52" s="60"/>
       <c r="U52" s="73"/>
     </row>
-    <row r="53" ht="18" customHeight="1" spans="1:21">
+    <row r="53" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A53" s="26" t="s">
         <v>21</v>
       </c>
@@ -9569,7 +9569,7 @@
       </c>
       <c r="U53" s="72"/>
     </row>
-    <row r="54" s="37" customFormat="1" ht="18" customHeight="1" spans="1:21">
+    <row r="54" s="37" customFormat="1" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A54" s="60" t="s">
         <v>21</v>
       </c>
@@ -9624,7 +9624,7 @@
       <c r="T54" s="60"/>
       <c r="U54" s="73"/>
     </row>
-    <row r="55" ht="18" customHeight="1" spans="1:21">
+    <row r="55" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A55" s="26" t="s">
         <v>21</v>
       </c>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="U55" s="72"/>
     </row>
-    <row r="56" s="37" customFormat="1" ht="18" customHeight="1" spans="1:21">
+    <row r="56" s="37" customFormat="1" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A56" s="60" t="s">
         <v>21</v>
       </c>
@@ -9736,7 +9736,7 @@
       <c r="T56" s="60"/>
       <c r="U56" s="73"/>
     </row>
-    <row r="57" ht="18" customHeight="1" spans="1:21">
+    <row r="57" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A57" s="26" t="s">
         <v>21</v>
       </c>
@@ -9793,7 +9793,7 @@
       </c>
       <c r="U57" s="72"/>
     </row>
-    <row r="58" ht="18" customHeight="1" spans="1:21">
+    <row r="58" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A58" s="26" t="s">
         <v>21</v>
       </c>
@@ -9848,7 +9848,7 @@
       <c r="T58" s="26"/>
       <c r="U58" s="72"/>
     </row>
-    <row r="59" ht="45" customHeight="1" spans="1:21">
+    <row r="59" ht="45" hidden="1" customHeight="1" spans="1:21">
       <c r="A59" s="26" t="s">
         <v>21</v>
       </c>
@@ -9903,7 +9903,7 @@
       <c r="T59" s="26"/>
       <c r="U59" s="72"/>
     </row>
-    <row r="60" ht="18" customHeight="1" spans="1:21">
+    <row r="60" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A60" s="26" t="s">
         <v>21</v>
       </c>
@@ -9960,7 +9960,7 @@
       </c>
       <c r="U60" s="72"/>
     </row>
-    <row r="61" ht="18" customHeight="1" spans="1:21">
+    <row r="61" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A61" s="26" t="s">
         <v>21</v>
       </c>
@@ -10017,7 +10017,7 @@
       </c>
       <c r="U61" s="72"/>
     </row>
-    <row r="62" ht="18" customHeight="1" spans="1:21">
+    <row r="62" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A62" s="26" t="s">
         <v>21</v>
       </c>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="U62" s="72"/>
     </row>
-    <row r="63" ht="18" customHeight="1" spans="1:21">
+    <row r="63" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A63" s="26" t="s">
         <v>21</v>
       </c>
@@ -10131,7 +10131,7 @@
       </c>
       <c r="U63" s="72"/>
     </row>
-    <row r="64" ht="18" customHeight="1" spans="1:21">
+    <row r="64" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A64" s="26" t="s">
         <v>21</v>
       </c>
@@ -10186,7 +10186,7 @@
       <c r="T64" s="26"/>
       <c r="U64" s="72"/>
     </row>
-    <row r="65" ht="18" customHeight="1" spans="1:21">
+    <row r="65" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A65" s="26" t="s">
         <v>21</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="66" ht="18" customHeight="1" spans="1:21">
+    <row r="66" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A66" s="26" t="s">
         <v>21</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" ht="18" customHeight="1" spans="1:21">
+    <row r="67" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A67" s="26" t="s">
         <v>21</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="68" ht="18" customHeight="1" spans="1:21">
+    <row r="68" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A68" s="26" t="s">
         <v>21</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="69" ht="18" customHeight="1" spans="1:21">
+    <row r="69" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A69" s="26" t="s">
         <v>21</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" ht="18" customHeight="1" spans="1:21">
+    <row r="70" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A70" s="26" t="s">
         <v>21</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" ht="18" customHeight="1" spans="1:21">
+    <row r="71" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A71" s="26" t="s">
         <v>21</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="72" ht="18" customHeight="1" spans="1:21">
+    <row r="72" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A72" s="26" t="s">
         <v>21</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="73" ht="18" customHeight="1" spans="1:21">
+    <row r="73" ht="18" hidden="1" customHeight="1" spans="1:21">
       <c r="A73" s="26" t="s">
         <v>21</v>
       </c>
@@ -10764,7 +10764,7 @@
       </c>
       <c r="U74" s="72"/>
     </row>
-    <row r="75" ht="27" spans="1:21">
+    <row r="75" ht="27" hidden="1" spans="1:21">
       <c r="A75" s="26" t="s">
         <v>267</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="76" s="38" customFormat="1" ht="27" spans="1:21">
+    <row r="76" s="38" customFormat="1" ht="27" hidden="1" spans="1:21">
       <c r="A76" s="75" t="s">
         <v>267</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="77" ht="27" spans="1:21">
+    <row r="77" ht="27" hidden="1" spans="1:21">
       <c r="A77" s="26" t="s">
         <v>267</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="78" s="38" customFormat="1" ht="27" spans="1:21">
+    <row r="78" s="38" customFormat="1" ht="27" hidden="1" spans="1:21">
       <c r="A78" s="75" t="s">
         <v>267</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="79" ht="27" spans="1:21">
+    <row r="79" ht="27" hidden="1" spans="1:21">
       <c r="A79" s="26" t="s">
         <v>267</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="80" ht="27" spans="1:21">
+    <row r="80" ht="27" hidden="1" spans="1:21">
       <c r="A80" s="26" t="s">
         <v>267</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="81" ht="27" spans="1:21">
+    <row r="81" ht="27" hidden="1" spans="1:21">
       <c r="A81" s="26" t="s">
         <v>267</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" ht="27" spans="1:21">
+    <row r="82" ht="27" hidden="1" spans="1:21">
       <c r="A82" s="26" t="s">
         <v>267</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="83" ht="27" spans="1:21">
+    <row r="83" ht="27" hidden="1" spans="1:21">
       <c r="A83" s="26" t="s">
         <v>267</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="84" ht="27" spans="1:21">
+    <row r="84" ht="27" hidden="1" spans="1:21">
       <c r="A84" s="26" t="s">
         <v>267</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="85" s="38" customFormat="1" ht="27" spans="1:21">
+    <row r="85" s="38" customFormat="1" ht="27" hidden="1" spans="1:21">
       <c r="A85" s="75" t="s">
         <v>267</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="86" ht="27" spans="1:21">
+    <row r="86" ht="27" hidden="1" spans="1:21">
       <c r="A86" s="26" t="s">
         <v>267</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="87" ht="27" spans="1:21">
+    <row r="87" ht="27" hidden="1" spans="1:21">
       <c r="A87" s="26" t="s">
         <v>267</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="88" ht="27" spans="1:21">
+    <row r="88" ht="27" hidden="1" spans="1:21">
       <c r="A88" s="26" t="s">
         <v>267</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="89" ht="27" spans="1:21">
+    <row r="89" ht="27" hidden="1" spans="1:21">
       <c r="A89" s="26" t="s">
         <v>267</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="90" ht="27" spans="1:21">
+    <row r="90" ht="27" hidden="1" spans="1:21">
       <c r="A90" s="26" t="s">
         <v>267</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="91" ht="27" spans="1:21">
+    <row r="91" ht="27" hidden="1" spans="1:21">
       <c r="A91" s="26" t="s">
         <v>267</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" ht="27" spans="1:21">
+    <row r="92" ht="27" hidden="1" spans="1:21">
       <c r="A92" s="26" t="s">
         <v>267</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" hidden="1" spans="1:21">
       <c r="A93" s="26" t="s">
         <v>267</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" hidden="1" spans="1:21">
       <c r="A94" s="26" t="s">
         <v>267</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="95" s="38" customFormat="1" spans="1:21">
+    <row r="95" s="38" customFormat="1" hidden="1" spans="1:21">
       <c r="A95" s="75" t="s">
         <v>267</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="96" ht="14.25" spans="1:21">
+    <row r="96" ht="14.25" hidden="1" spans="1:21">
       <c r="A96" s="26" t="s">
         <v>267</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="97" ht="14.25" spans="1:21">
+    <row r="97" ht="14.25" hidden="1" spans="1:21">
       <c r="A97" s="26" t="s">
         <v>267</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" hidden="1" spans="1:21">
       <c r="A98" s="26" t="s">
         <v>267</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="99" s="38" customFormat="1" ht="27" spans="1:21">
+    <row r="99" s="38" customFormat="1" ht="27" hidden="1" spans="1:21">
       <c r="A99" s="75" t="s">
         <v>267</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="100" s="39" customFormat="1" ht="27" spans="1:21">
+    <row r="100" s="39" customFormat="1" ht="27" hidden="1" spans="1:21">
       <c r="A100" s="85" t="s">
         <v>267</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="101" s="39" customFormat="1" ht="27" spans="1:21">
+    <row r="101" s="39" customFormat="1" ht="27" hidden="1" spans="1:21">
       <c r="A101" s="85" t="s">
         <v>267</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" hidden="1" spans="1:21">
       <c r="A102" s="26" t="s">
         <v>267</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" hidden="1" spans="1:21">
       <c r="A103" s="26" t="s">
         <v>267</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="104" s="38" customFormat="1" ht="27" spans="1:21">
+    <row r="104" s="38" customFormat="1" ht="27" hidden="1" spans="1:21">
       <c r="A104" s="75" t="s">
         <v>267</v>
       </c>
@@ -12504,7 +12504,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" hidden="1" spans="1:21">
       <c r="A105" s="26" t="s">
         <v>267</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" hidden="1" spans="1:21">
       <c r="A106" s="26" t="s">
         <v>267</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" hidden="1" spans="1:21">
       <c r="A107" s="26" t="s">
         <v>267</v>
       </c>
@@ -12675,7 +12675,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" hidden="1" spans="1:21">
       <c r="A108" s="26" t="s">
         <v>267</v>
       </c>
@@ -12732,7 +12732,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" hidden="1" spans="1:21">
       <c r="A109" s="26" t="s">
         <v>267</v>
       </c>
@@ -12789,7 +12789,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" hidden="1" spans="1:21">
       <c r="A110" s="26" t="s">
         <v>267</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="111" ht="27" spans="1:21">
+    <row r="111" ht="27" hidden="1" spans="1:21">
       <c r="A111" s="26" t="s">
         <v>267</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="112" ht="27" spans="1:21">
+    <row r="112" ht="27" hidden="1" spans="1:21">
       <c r="A112" s="26" t="s">
         <v>267</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" hidden="1" spans="1:21">
       <c r="A113" s="26" t="s">
         <v>267</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" hidden="1" spans="1:21">
       <c r="A114" s="26" t="s">
         <v>267</v>
       </c>
@@ -13074,7 +13074,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" hidden="1" spans="1:21">
       <c r="A115" s="26" t="s">
         <v>267</v>
       </c>
@@ -13131,7 +13131,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" hidden="1" spans="1:21">
       <c r="A116" s="26" t="s">
         <v>267</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" hidden="1" spans="1:21">
       <c r="A117" s="26" t="s">
         <v>267</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" hidden="1" spans="1:21">
       <c r="A118" s="26" t="s">
         <v>267</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="119" ht="27" spans="1:21">
+    <row r="119" ht="27" hidden="1" spans="1:21">
       <c r="A119" s="26" t="s">
         <v>267</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="121" ht="27" spans="1:21">
+    <row r="121" ht="27" hidden="1" spans="1:21">
       <c r="A121" s="26" t="s">
         <v>267</v>
       </c>
@@ -13465,7 +13465,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="122" ht="27" spans="1:21">
+    <row r="122" ht="27" hidden="1" spans="1:21">
       <c r="A122" s="26" t="s">
         <v>267</v>
       </c>
@@ -13522,7 +13522,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="123" ht="27" spans="1:21">
+    <row r="123" ht="27" hidden="1" spans="1:21">
       <c r="A123" s="26" t="s">
         <v>267</v>
       </c>
@@ -13579,7 +13579,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="124" ht="27" spans="1:21">
+    <row r="124" ht="27" hidden="1" spans="1:21">
       <c r="A124" s="26" t="s">
         <v>267</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="125" ht="27" spans="1:21">
+    <row r="125" ht="27" hidden="1" spans="1:21">
       <c r="A125" s="26" t="s">
         <v>267</v>
       </c>
@@ -13693,7 +13693,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="126" ht="27" spans="1:21">
+    <row r="126" ht="27" hidden="1" spans="1:21">
       <c r="A126" s="26" t="s">
         <v>267</v>
       </c>
@@ -13750,7 +13750,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="127" ht="27" spans="1:21">
+    <row r="127" ht="27" hidden="1" spans="1:21">
       <c r="A127" s="26" t="s">
         <v>267</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="128" ht="27" spans="1:21">
+    <row r="128" ht="27" hidden="1" spans="1:21">
       <c r="A128" s="26" t="s">
         <v>267</v>
       </c>
@@ -13866,7 +13866,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="129" ht="27" spans="1:21">
+    <row r="129" ht="27" hidden="1" spans="1:21">
       <c r="A129" s="26" t="s">
         <v>267</v>
       </c>
@@ -13923,7 +13923,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="130" ht="27" spans="1:21">
+    <row r="130" ht="27" hidden="1" spans="1:21">
       <c r="A130" s="60" t="s">
         <v>267</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="131" ht="27" spans="1:21">
+    <row r="131" ht="27" hidden="1" spans="1:21">
       <c r="A131" s="60" t="s">
         <v>267</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="132" ht="27" spans="1:21">
+    <row r="132" ht="27" hidden="1" spans="1:21">
       <c r="A132" s="60" t="s">
         <v>267</v>
       </c>
@@ -14094,7 +14094,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="133" ht="27" spans="1:21">
+    <row r="133" ht="27" hidden="1" spans="1:21">
       <c r="A133" s="26" t="s">
         <v>267</v>
       </c>
@@ -14151,7 +14151,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="134" ht="27" spans="1:21">
+    <row r="134" ht="27" hidden="1" spans="1:21">
       <c r="A134" s="26" t="s">
         <v>267</v>
       </c>
@@ -14208,7 +14208,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="135" ht="27" spans="1:21">
+    <row r="135" ht="27" hidden="1" spans="1:21">
       <c r="A135" s="26" t="s">
         <v>267</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="136" ht="27" spans="1:21">
+    <row r="136" ht="27" hidden="1" spans="1:21">
       <c r="A136" s="26" t="s">
         <v>267</v>
       </c>
@@ -14322,7 +14322,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="137" ht="27" spans="1:21">
+    <row r="137" ht="27" hidden="1" spans="1:21">
       <c r="A137" s="26" t="s">
         <v>267</v>
       </c>
@@ -14379,7 +14379,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" hidden="1" spans="1:21">
       <c r="A138" s="26" t="s">
         <v>267</v>
       </c>
@@ -14436,7 +14436,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="139" ht="27" spans="1:21">
+    <row r="139" ht="27" hidden="1" spans="1:21">
       <c r="A139" s="26" t="s">
         <v>267</v>
       </c>
@@ -14493,7 +14493,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="140" ht="27" spans="1:21">
+    <row r="140" ht="27" hidden="1" spans="1:21">
       <c r="A140" s="26" t="s">
         <v>267</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="141" ht="27" spans="1:21">
+    <row r="141" ht="27" hidden="1" spans="1:21">
       <c r="A141" s="26" t="s">
         <v>267</v>
       </c>
@@ -14607,7 +14607,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="142" ht="27" spans="1:21">
+    <row r="142" ht="27" hidden="1" spans="1:21">
       <c r="A142" s="26" t="s">
         <v>267</v>
       </c>
@@ -14664,7 +14664,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="143" ht="27" spans="1:21">
+    <row r="143" ht="27" hidden="1" spans="1:21">
       <c r="A143" s="26" t="s">
         <v>267</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="144" ht="27" spans="1:21">
+    <row r="144" ht="27" hidden="1" spans="1:21">
       <c r="A144" s="26" t="s">
         <v>267</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" hidden="1" spans="1:21">
       <c r="A145" s="26" t="s">
         <v>267</v>
       </c>
@@ -14835,7 +14835,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="146" s="38" customFormat="1" spans="1:21">
+    <row r="146" s="38" customFormat="1" hidden="1" spans="1:21">
       <c r="A146" s="75" t="s">
         <v>267</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="147" ht="27" spans="1:21">
+    <row r="147" ht="27" hidden="1" spans="1:21">
       <c r="A147" s="26" t="s">
         <v>267</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="148" ht="27" spans="1:21">
+    <row r="148" ht="27" hidden="1" spans="1:21">
       <c r="A148" s="26" t="s">
         <v>267</v>
       </c>
@@ -15010,7 +15010,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="149" s="38" customFormat="1" ht="40.5" spans="1:21">
+    <row r="149" s="38" customFormat="1" ht="40.5" hidden="1" spans="1:21">
       <c r="A149" s="75" t="s">
         <v>267</v>
       </c>
@@ -15120,7 +15120,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="151" ht="27" spans="1:21">
+    <row r="151" ht="27" hidden="1" spans="1:21">
       <c r="A151" s="26" t="s">
         <v>267</v>
       </c>
@@ -15177,7 +15177,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="152" ht="27" spans="1:21">
+    <row r="152" ht="27" hidden="1" spans="1:21">
       <c r="A152" s="26" t="s">
         <v>267</v>
       </c>
@@ -15234,7 +15234,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="153" ht="27" spans="1:21">
+    <row r="153" ht="27" hidden="1" spans="1:21">
       <c r="A153" s="26" t="s">
         <v>267</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="154" ht="27" spans="1:21">
+    <row r="154" ht="27" hidden="1" spans="1:21">
       <c r="A154" s="26" t="s">
         <v>267</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="155" ht="27" spans="1:21">
+    <row r="155" ht="27" hidden="1" spans="1:21">
       <c r="A155" s="26" t="s">
         <v>267</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="156" ht="27" spans="1:21">
+    <row r="156" ht="27" hidden="1" spans="1:21">
       <c r="A156" s="26" t="s">
         <v>267</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="157" ht="27" spans="1:21">
+    <row r="157" ht="27" hidden="1" spans="1:21">
       <c r="A157" s="26" t="s">
         <v>267</v>
       </c>
@@ -15519,7 +15519,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="158" s="40" customFormat="1" ht="27" spans="1:21">
+    <row r="158" s="40" customFormat="1" ht="27" hidden="1" spans="1:21">
       <c r="A158" s="103" t="s">
         <v>267</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="159" s="40" customFormat="1" ht="27" spans="1:21">
+    <row r="159" s="40" customFormat="1" ht="27" hidden="1" spans="1:21">
       <c r="A159" s="103" t="s">
         <v>267</v>
       </c>
@@ -15633,7 +15633,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="160" s="40" customFormat="1" ht="27" spans="1:21">
+    <row r="160" s="40" customFormat="1" ht="27" hidden="1" spans="1:21">
       <c r="A160" s="103" t="s">
         <v>267</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="161" ht="27" spans="1:21">
+    <row r="161" ht="27" hidden="1" spans="1:21">
       <c r="A161" s="26" t="s">
         <v>267</v>
       </c>
@@ -15747,7 +15747,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="162" ht="27" spans="1:21">
+    <row r="162" ht="27" hidden="1" spans="1:21">
       <c r="A162" s="26" t="s">
         <v>267</v>
       </c>
@@ -15804,7 +15804,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="163" ht="27" spans="1:21">
+    <row r="163" ht="27" hidden="1" spans="1:21">
       <c r="A163" s="26" t="s">
         <v>267</v>
       </c>
@@ -15861,7 +15861,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="164" ht="27" spans="1:21">
+    <row r="164" ht="27" hidden="1" spans="1:21">
       <c r="A164" s="26" t="s">
         <v>267</v>
       </c>
@@ -15918,7 +15918,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="165" ht="27" spans="1:21">
+    <row r="165" ht="27" hidden="1" spans="1:21">
       <c r="A165" s="26" t="s">
         <v>267</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="166" ht="27" spans="1:21">
+    <row r="166" ht="27" hidden="1" spans="1:21">
       <c r="A166" s="26" t="s">
         <v>267</v>
       </c>
@@ -16032,7 +16032,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="167" ht="27" spans="1:21">
+    <row r="167" ht="27" hidden="1" spans="1:21">
       <c r="A167" s="26" t="s">
         <v>267</v>
       </c>
@@ -16089,7 +16089,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="168" ht="30.95" customHeight="1" spans="1:21">
+    <row r="168" ht="30.95" hidden="1" customHeight="1" spans="1:21">
       <c r="A168" s="26" t="s">
         <v>267</v>
       </c>
@@ -16146,7 +16146,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="169" ht="27" spans="1:21">
+    <row r="169" ht="27" hidden="1" spans="1:21">
       <c r="A169" s="26" t="s">
         <v>267</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="170" ht="27" spans="1:21">
+    <row r="170" ht="27" hidden="1" spans="1:21">
       <c r="A170" s="26" t="s">
         <v>267</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="171" ht="27" spans="1:21">
+    <row r="171" ht="27" hidden="1" spans="1:21">
       <c r="A171" s="26" t="s">
         <v>267</v>
       </c>
@@ -16317,7 +16317,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="172" ht="27" spans="1:21">
+    <row r="172" ht="27" hidden="1" spans="1:21">
       <c r="A172" s="26" t="s">
         <v>267</v>
       </c>
@@ -16374,7 +16374,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="173" s="38" customFormat="1" ht="27" spans="1:21">
+    <row r="173" s="38" customFormat="1" ht="27" hidden="1" spans="1:21">
       <c r="A173" s="75" t="s">
         <v>267</v>
       </c>
@@ -16435,7 +16435,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="174" ht="27" spans="1:21">
+    <row r="174" ht="27" hidden="1" spans="1:21">
       <c r="A174" s="26" t="s">
         <v>267</v>
       </c>
@@ -16492,7 +16492,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="175" ht="27" spans="1:21">
+    <row r="175" ht="27" hidden="1" spans="1:21">
       <c r="A175" s="26" t="s">
         <v>267</v>
       </c>
@@ -16549,7 +16549,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="176" ht="27" spans="1:21">
+    <row r="176" ht="27" hidden="1" spans="1:21">
       <c r="A176" s="60" t="s">
         <v>267</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="177" ht="27" spans="1:21">
+    <row r="177" ht="27" hidden="1" spans="1:21">
       <c r="A177" s="60" t="s">
         <v>267</v>
       </c>
@@ -16663,7 +16663,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="178" ht="27" spans="1:21">
+    <row r="178" ht="27" hidden="1" spans="1:21">
       <c r="A178" s="60" t="s">
         <v>267</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="179" ht="27" spans="1:21">
+    <row r="179" ht="27" hidden="1" spans="1:21">
       <c r="A179" s="26" t="s">
         <v>267</v>
       </c>
@@ -16777,7 +16777,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="180" ht="27" spans="1:21">
+    <row r="180" ht="27" hidden="1" spans="1:21">
       <c r="A180" s="26" t="s">
         <v>267</v>
       </c>
@@ -16836,7 +16836,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="181" ht="27" spans="1:21">
+    <row r="181" ht="27" hidden="1" spans="1:21">
       <c r="A181" s="60" t="s">
         <v>267</v>
       </c>
@@ -16895,7 +16895,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" hidden="1" spans="1:21">
       <c r="A182" s="26" t="s">
         <v>267</v>
       </c>
@@ -16952,7 +16952,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" hidden="1" spans="1:21">
       <c r="A183" s="26" t="s">
         <v>267</v>
       </c>
@@ -17011,7 +17011,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" hidden="1" spans="1:21">
       <c r="A184" s="26" t="s">
         <v>267</v>
       </c>
@@ -17117,7 +17117,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="186" ht="14.25" spans="1:21">
+    <row r="186" ht="14.25" hidden="1" spans="1:21">
       <c r="A186" s="26" t="s">
         <v>267</v>
       </c>
@@ -17174,7 +17174,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="187" ht="14.25" spans="1:21">
+    <row r="187" ht="14.25" hidden="1" spans="1:21">
       <c r="A187" s="26" t="s">
         <v>267</v>
       </c>
@@ -17229,7 +17229,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="188" ht="14.25" spans="1:21">
+    <row r="188" ht="14.25" hidden="1" spans="1:21">
       <c r="A188" s="26" t="s">
         <v>267</v>
       </c>
@@ -17288,7 +17288,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="189" ht="14.25" spans="1:21">
+    <row r="189" ht="14.25" hidden="1" spans="1:21">
       <c r="A189" s="26" t="s">
         <v>267</v>
       </c>
@@ -17343,7 +17343,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="190" ht="27" spans="1:21">
+    <row r="190" ht="27" hidden="1" spans="1:21">
       <c r="A190" s="26" t="s">
         <v>267</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="191" ht="27" spans="1:21">
+    <row r="191" ht="27" hidden="1" spans="1:21">
       <c r="A191" s="26" t="s">
         <v>267</v>
       </c>
@@ -17457,7 +17457,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="192" ht="27" spans="1:21">
+    <row r="192" ht="27" hidden="1" spans="1:21">
       <c r="A192" s="26" t="s">
         <v>267</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="193" ht="27" spans="1:21">
+    <row r="193" ht="27" hidden="1" spans="1:21">
       <c r="A193" s="26" t="s">
         <v>267</v>
       </c>
@@ -17571,7 +17571,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="194" ht="27" spans="1:21">
+    <row r="194" ht="27" hidden="1" spans="1:21">
       <c r="A194" s="26" t="s">
         <v>267</v>
       </c>
@@ -17628,7 +17628,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="195" ht="27" spans="1:21">
+    <row r="195" ht="27" hidden="1" spans="1:21">
       <c r="A195" s="26" t="s">
         <v>267</v>
       </c>
@@ -17685,7 +17685,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="196" spans="1:21">
+    <row r="196" hidden="1" spans="1:21">
       <c r="A196" s="26" t="s">
         <v>267</v>
       </c>
@@ -17742,7 +17742,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="197" spans="1:21">
+    <row r="197" hidden="1" spans="1:21">
       <c r="A197" s="26" t="s">
         <v>267</v>
       </c>
@@ -17799,7 +17799,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="198" spans="1:21">
+    <row r="198" hidden="1" spans="1:21">
       <c r="A198" s="26" t="s">
         <v>267</v>
       </c>
@@ -17856,7 +17856,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="199" spans="1:21">
+    <row r="199" hidden="1" spans="1:21">
       <c r="A199" s="26" t="s">
         <v>267</v>
       </c>
@@ -17913,7 +17913,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="200" spans="1:21">
+    <row r="200" hidden="1" spans="1:21">
       <c r="A200" s="26" t="s">
         <v>267</v>
       </c>
@@ -17972,7 +17972,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="201" ht="27" spans="1:21">
+    <row r="201" ht="27" hidden="1" spans="1:21">
       <c r="A201" s="26" t="s">
         <v>267</v>
       </c>
@@ -18029,7 +18029,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="202" ht="27" spans="1:21">
+    <row r="202" ht="27" hidden="1" spans="1:21">
       <c r="A202" s="26" t="s">
         <v>267</v>
       </c>
@@ -18086,7 +18086,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="203" spans="1:21">
+    <row r="203" hidden="1" spans="1:21">
       <c r="A203" s="26" t="s">
         <v>267</v>
       </c>
@@ -18143,7 +18143,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="204" ht="27" spans="1:21">
+    <row r="204" ht="27" hidden="1" spans="1:21">
       <c r="A204" s="26" t="s">
         <v>267</v>
       </c>
@@ -18200,7 +18200,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="205" ht="27" spans="1:21">
+    <row r="205" ht="27" hidden="1" spans="1:21">
       <c r="A205" s="26" t="s">
         <v>267</v>
       </c>
@@ -18257,7 +18257,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="206" spans="1:21">
+    <row r="206" hidden="1" spans="1:21">
       <c r="A206" s="26" t="s">
         <v>267</v>
       </c>
@@ -18314,7 +18314,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="207" spans="1:21">
+    <row r="207" hidden="1" spans="1:21">
       <c r="A207" s="26" t="s">
         <v>267</v>
       </c>
@@ -18347,7 +18347,7 @@
       <c r="T207" s="26"/>
       <c r="U207" s="72"/>
     </row>
-    <row r="208" spans="1:21">
+    <row r="208" hidden="1" spans="1:21">
       <c r="A208" s="26" t="s">
         <v>267</v>
       </c>
@@ -18404,7 +18404,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="209" ht="27" spans="1:21">
+    <row r="209" ht="27" hidden="1" spans="1:21">
       <c r="A209" s="26" t="s">
         <v>267</v>
       </c>
@@ -18457,7 +18457,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="210" ht="27" spans="1:21">
+    <row r="210" ht="27" hidden="1" spans="1:21">
       <c r="A210" s="26" t="s">
         <v>267</v>
       </c>
@@ -18510,7 +18510,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="211" ht="27" spans="1:21">
+    <row r="211" ht="27" hidden="1" spans="1:21">
       <c r="A211" s="26" t="s">
         <v>267</v>
       </c>
@@ -18563,7 +18563,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="212" ht="27" spans="1:21">
+    <row r="212" ht="27" hidden="1" spans="1:21">
       <c r="A212" s="26" t="s">
         <v>267</v>
       </c>
@@ -18616,7 +18616,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="213" ht="27" spans="1:21">
+    <row r="213" ht="27" hidden="1" spans="1:21">
       <c r="A213" s="26" t="s">
         <v>267</v>
       </c>
@@ -18669,7 +18669,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="214" ht="27" spans="1:21">
+    <row r="214" ht="27" hidden="1" spans="1:21">
       <c r="A214" s="26" t="s">
         <v>267</v>
       </c>
@@ -18722,7 +18722,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="215" ht="27" spans="1:21">
+    <row r="215" ht="27" hidden="1" spans="1:21">
       <c r="A215" s="26" t="s">
         <v>267</v>
       </c>
@@ -18775,7 +18775,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="216" ht="27" spans="1:21">
+    <row r="216" ht="27" hidden="1" spans="1:21">
       <c r="A216" s="26" t="s">
         <v>267</v>
       </c>
@@ -18828,7 +18828,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="217" ht="27" spans="1:21">
+    <row r="217" ht="27" hidden="1" spans="1:21">
       <c r="A217" s="26" t="s">
         <v>267</v>
       </c>
@@ -18881,7 +18881,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="218" ht="27" spans="1:21">
+    <row r="218" ht="27" hidden="1" spans="1:21">
       <c r="A218" s="26" t="s">
         <v>267</v>
       </c>
@@ -18934,7 +18934,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="219" ht="27" spans="1:21">
+    <row r="219" ht="27" hidden="1" spans="1:21">
       <c r="A219" s="26" t="s">
         <v>267</v>
       </c>
@@ -18987,7 +18987,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="220" ht="27" spans="1:21">
+    <row r="220" ht="27" hidden="1" spans="1:21">
       <c r="A220" s="26" t="s">
         <v>267</v>
       </c>
@@ -19040,7 +19040,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="221" ht="27" spans="1:21">
+    <row r="221" ht="27" hidden="1" spans="1:21">
       <c r="A221" s="26" t="s">
         <v>267</v>
       </c>
@@ -19093,7 +19093,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="222" ht="27" spans="1:21">
+    <row r="222" ht="27" hidden="1" spans="1:21">
       <c r="A222" s="26" t="s">
         <v>267</v>
       </c>
@@ -19146,7 +19146,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="223" ht="27" spans="1:21">
+    <row r="223" ht="27" hidden="1" spans="1:21">
       <c r="A223" s="26" t="s">
         <v>267</v>
       </c>
@@ -19199,7 +19199,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="224" ht="27" spans="1:21">
+    <row r="224" ht="27" hidden="1" spans="1:21">
       <c r="A224" s="26" t="s">
         <v>267</v>
       </c>
@@ -19252,7 +19252,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="225" ht="27" spans="1:21">
+    <row r="225" ht="27" hidden="1" spans="1:21">
       <c r="A225" s="26" t="s">
         <v>267</v>
       </c>
@@ -19305,7 +19305,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="226" spans="1:21">
+    <row r="226" hidden="1" spans="1:21">
       <c r="A226" s="26" t="s">
         <v>267</v>
       </c>
@@ -19358,7 +19358,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="227" ht="21" customHeight="1" spans="1:21">
+    <row r="227" ht="21" hidden="1" customHeight="1" spans="1:21">
       <c r="A227" s="26" t="s">
         <v>267</v>
       </c>
@@ -19411,7 +19411,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="228" spans="1:21">
+    <row r="228" hidden="1" spans="1:21">
       <c r="A228" s="26" t="s">
         <v>267</v>
       </c>
@@ -19464,7 +19464,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="229" spans="1:21">
+    <row r="229" hidden="1" spans="1:21">
       <c r="A229" s="26" t="s">
         <v>267</v>
       </c>
@@ -19517,7 +19517,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="230" s="40" customFormat="1" spans="1:21">
+    <row r="230" s="40" customFormat="1" hidden="1" spans="1:21">
       <c r="A230" s="103" t="s">
         <v>267</v>
       </c>
@@ -19570,7 +19570,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="231" spans="1:21">
+    <row r="231" hidden="1" spans="1:21">
       <c r="A231" s="26" t="s">
         <v>267</v>
       </c>
@@ -19623,7 +19623,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="232" spans="1:21">
+    <row r="232" hidden="1" spans="1:21">
       <c r="A232" s="26" t="s">
         <v>267</v>
       </c>
@@ -19676,7 +19676,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="233" spans="1:21">
+    <row r="233" hidden="1" spans="1:21">
       <c r="A233" s="26" t="s">
         <v>267</v>
       </c>
@@ -19729,7 +19729,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="234" spans="1:21">
+    <row r="234" hidden="1" spans="1:21">
       <c r="A234" s="26" t="s">
         <v>267</v>
       </c>
@@ -19782,7 +19782,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="235" spans="1:21">
+    <row r="235" hidden="1" spans="1:21">
       <c r="A235" s="26" t="s">
         <v>267</v>
       </c>
@@ -19835,7 +19835,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="236" ht="27" spans="1:21">
+    <row r="236" ht="27" hidden="1" spans="1:21">
       <c r="A236" s="26" t="s">
         <v>267</v>
       </c>
@@ -19888,7 +19888,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="237" ht="27" spans="1:21">
+    <row r="237" ht="27" hidden="1" spans="1:21">
       <c r="A237" s="26" t="s">
         <v>267</v>
       </c>
@@ -19941,7 +19941,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="238" spans="1:21">
+    <row r="238" hidden="1" spans="1:21">
       <c r="A238" s="26" t="s">
         <v>267</v>
       </c>
@@ -19994,7 +19994,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="239" ht="27" spans="1:21">
+    <row r="239" ht="27" hidden="1" spans="1:21">
       <c r="A239" s="26" t="s">
         <v>267</v>
       </c>
@@ -20047,7 +20047,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="240" ht="27" spans="1:21">
+    <row r="240" ht="27" hidden="1" spans="1:21">
       <c r="A240" s="26" t="s">
         <v>267</v>
       </c>
@@ -20100,7 +20100,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="241" ht="27" spans="1:21">
+    <row r="241" ht="27" hidden="1" spans="1:21">
       <c r="A241" s="26" t="s">
         <v>267</v>
       </c>
@@ -20153,7 +20153,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="242" ht="27" spans="1:21">
+    <row r="242" ht="27" hidden="1" spans="1:21">
       <c r="A242" s="26" t="s">
         <v>267</v>
       </c>
@@ -20206,7 +20206,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="243" ht="27" spans="1:21">
+    <row r="243" ht="27" hidden="1" spans="1:21">
       <c r="A243" s="26" t="s">
         <v>267</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="244" ht="15" customHeight="1" spans="1:21">
+    <row r="244" ht="15" hidden="1" customHeight="1" spans="1:21">
       <c r="A244" s="26" t="s">
         <v>267</v>
       </c>
@@ -20312,7 +20312,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="245" ht="27" spans="1:21">
+    <row r="245" ht="27" hidden="1" spans="1:21">
       <c r="A245" s="26" t="s">
         <v>267</v>
       </c>
@@ -20365,7 +20365,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="246" ht="27" spans="1:21">
+    <row r="246" ht="27" hidden="1" spans="1:21">
       <c r="A246" s="26" t="s">
         <v>267</v>
       </c>
@@ -20418,7 +20418,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="247" ht="27" spans="1:21">
+    <row r="247" ht="27" hidden="1" spans="1:21">
       <c r="A247" s="26" t="s">
         <v>267</v>
       </c>
@@ -20471,7 +20471,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="248" ht="27" spans="1:21">
+    <row r="248" ht="27" hidden="1" spans="1:21">
       <c r="A248" s="26" t="s">
         <v>267</v>
       </c>
@@ -20524,7 +20524,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="249" spans="1:21">
+    <row r="249" hidden="1" spans="1:21">
       <c r="A249" s="26" t="s">
         <v>267</v>
       </c>
@@ -20577,7 +20577,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="250" spans="1:21">
+    <row r="250" hidden="1" spans="1:21">
       <c r="A250" s="26" t="s">
         <v>267</v>
       </c>
@@ -20630,7 +20630,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="251" spans="1:21">
+    <row r="251" hidden="1" spans="1:21">
       <c r="A251" s="74" t="s">
         <v>686</v>
       </c>
@@ -20687,7 +20687,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="252" ht="27" spans="1:21">
+    <row r="252" ht="27" hidden="1" spans="1:21">
       <c r="A252" s="74" t="s">
         <v>686</v>
       </c>
@@ -20789,7 +20789,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="254" spans="1:21">
+    <row r="254" hidden="1" spans="1:21">
       <c r="A254" s="74" t="s">
         <v>686</v>
       </c>
@@ -20846,7 +20846,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="255" ht="14.25" spans="1:21">
+    <row r="255" ht="14.25" hidden="1" spans="1:21">
       <c r="A255" s="74" t="s">
         <v>686</v>
       </c>
@@ -20903,7 +20903,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="256" ht="14.25" spans="1:21">
+    <row r="256" ht="14.25" hidden="1" spans="1:21">
       <c r="A256" s="74" t="s">
         <v>686</v>
       </c>
@@ -20960,7 +20960,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="257" ht="14.25" spans="1:21">
+    <row r="257" ht="14.25" hidden="1" spans="1:21">
       <c r="A257" s="74" t="s">
         <v>686</v>
       </c>
@@ -21017,7 +21017,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="258" ht="14.25" spans="1:21">
+    <row r="258" ht="14.25" hidden="1" spans="1:21">
       <c r="A258" s="74" t="s">
         <v>686</v>
       </c>
@@ -21123,7 +21123,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="260" spans="1:21">
+    <row r="260" hidden="1" spans="1:21">
       <c r="A260" s="74" t="s">
         <v>686</v>
       </c>
@@ -21180,7 +21180,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="261" spans="1:21">
+    <row r="261" hidden="1" spans="1:21">
       <c r="A261" s="74" t="s">
         <v>686</v>
       </c>
@@ -21233,7 +21233,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="262" spans="1:21">
+    <row r="262" hidden="1" spans="1:21">
       <c r="A262" s="74" t="s">
         <v>686</v>
       </c>
@@ -21531,7 +21531,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="268" ht="27" spans="1:21">
+    <row r="268" ht="27" hidden="1" spans="1:21">
       <c r="A268" s="74" t="s">
         <v>686</v>
       </c>
@@ -21586,7 +21586,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="269" spans="1:21">
+    <row r="269" hidden="1" spans="1:21">
       <c r="A269" s="74" t="s">
         <v>686</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="270" ht="27" spans="1:21">
+    <row r="270" ht="27" hidden="1" spans="1:21">
       <c r="A270" s="74" t="s">
         <v>686</v>
       </c>
@@ -21698,7 +21698,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="271" spans="1:21">
+    <row r="271" hidden="1" spans="1:21">
       <c r="A271" s="74" t="s">
         <v>686</v>
       </c>
@@ -21755,7 +21755,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="272" spans="1:21">
+    <row r="272" hidden="1" spans="1:21">
       <c r="A272" s="74" t="s">
         <v>686</v>
       </c>
@@ -21812,7 +21812,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="273" s="37" customFormat="1" ht="27" spans="1:21">
+    <row r="273" s="37" customFormat="1" ht="27" hidden="1" spans="1:21">
       <c r="A273" s="73" t="s">
         <v>686</v>
       </c>
@@ -21910,7 +21910,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="275" spans="1:21">
+    <row r="275" hidden="1" spans="1:21">
       <c r="A275" s="74" t="s">
         <v>686</v>
       </c>
@@ -21967,7 +21967,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="276" spans="1:21">
+    <row r="276" hidden="1" spans="1:21">
       <c r="A276" s="74" t="s">
         <v>686</v>
       </c>
@@ -22020,7 +22020,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="277" ht="27" spans="1:21">
+    <row r="277" ht="27" hidden="1" spans="1:21">
       <c r="A277" s="74" t="s">
         <v>686</v>
       </c>
@@ -22073,7 +22073,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="278" spans="1:21">
+    <row r="278" hidden="1" spans="1:21">
       <c r="A278" s="74" t="s">
         <v>686</v>
       </c>
@@ -22130,7 +22130,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="279" spans="1:21">
+    <row r="279" hidden="1" spans="1:21">
       <c r="A279" s="74" t="s">
         <v>686</v>
       </c>
@@ -22179,7 +22179,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="280" spans="1:21">
+    <row r="280" hidden="1" spans="1:21">
       <c r="A280" s="74" t="s">
         <v>686</v>
       </c>
@@ -22228,7 +22228,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="281" spans="1:21">
+    <row r="281" hidden="1" spans="1:21">
       <c r="A281" s="74" t="s">
         <v>686</v>
       </c>
@@ -22281,7 +22281,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="282" spans="1:21">
+    <row r="282" hidden="1" spans="1:21">
       <c r="A282" s="74" t="s">
         <v>686</v>
       </c>
@@ -22334,7 +22334,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="283" s="37" customFormat="1" spans="1:21">
+    <row r="283" s="37" customFormat="1" hidden="1" spans="1:21">
       <c r="A283" s="73" t="s">
         <v>686</v>
       </c>
@@ -22389,7 +22389,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="284" spans="1:21">
+    <row r="284" hidden="1" spans="1:21">
       <c r="A284" s="74" t="s">
         <v>686</v>
       </c>
@@ -22444,7 +22444,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="285" spans="1:21">
+    <row r="285" hidden="1" spans="1:21">
       <c r="A285" s="74" t="s">
         <v>686</v>
       </c>
@@ -22497,7 +22497,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="286" ht="27" spans="1:21">
+    <row r="286" ht="27" hidden="1" spans="1:21">
       <c r="A286" s="74" t="s">
         <v>686</v>
       </c>
@@ -22550,7 +22550,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="287" spans="1:21">
+    <row r="287" hidden="1" spans="1:21">
       <c r="A287" s="74" t="s">
         <v>686</v>
       </c>
@@ -22705,7 +22705,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="290" ht="27" spans="1:21">
+    <row r="290" ht="27" hidden="1" spans="1:21">
       <c r="A290" s="74" t="s">
         <v>848</v>
       </c>
@@ -22762,7 +22762,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="291" ht="27" spans="1:21">
+    <row r="291" ht="27" hidden="1" spans="1:21">
       <c r="A291" s="74" t="s">
         <v>848</v>
       </c>
@@ -22819,7 +22819,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="292" ht="27" spans="1:21">
+    <row r="292" ht="27" hidden="1" spans="1:21">
       <c r="A292" s="74" t="s">
         <v>848</v>
       </c>
@@ -22876,7 +22876,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="293" ht="27" spans="1:21">
+    <row r="293" ht="27" hidden="1" spans="1:21">
       <c r="A293" s="74" t="s">
         <v>848</v>
       </c>
@@ -22933,7 +22933,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="294" s="40" customFormat="1" ht="27" spans="1:21">
+    <row r="294" s="40" customFormat="1" ht="27" hidden="1" spans="1:21">
       <c r="A294" s="74" t="s">
         <v>848</v>
       </c>
@@ -22990,7 +22990,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="295" spans="1:21">
+    <row r="295" hidden="1" spans="1:21">
       <c r="A295" s="74" t="s">
         <v>848</v>
       </c>
@@ -23047,7 +23047,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:21">
+    <row r="296" hidden="1" spans="1:21">
       <c r="A296" s="74" t="s">
         <v>848</v>
       </c>
@@ -23300,7 +23300,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="301" spans="1:21">
+    <row r="301" hidden="1" spans="1:21">
       <c r="A301" s="74" t="s">
         <v>848</v>
       </c>
@@ -23357,7 +23357,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="302" spans="1:21">
+    <row r="302" hidden="1" spans="1:21">
       <c r="A302" s="74" t="s">
         <v>848</v>
       </c>
@@ -23414,7 +23414,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="303" spans="1:21">
+    <row r="303" hidden="1" spans="1:21">
       <c r="A303" s="74" t="s">
         <v>848</v>
       </c>
@@ -23471,7 +23471,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="304" spans="1:21">
+    <row r="304" hidden="1" spans="1:21">
       <c r="A304" s="74" t="s">
         <v>848</v>
       </c>
@@ -23528,7 +23528,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="305" spans="1:21">
+    <row r="305" hidden="1" spans="1:21">
       <c r="A305" s="74" t="s">
         <v>848</v>
       </c>
@@ -23585,7 +23585,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="306" spans="1:21">
+    <row r="306" hidden="1" spans="1:21">
       <c r="A306" s="74" t="s">
         <v>848</v>
       </c>
@@ -23642,7 +23642,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="307" spans="1:21">
+    <row r="307" hidden="1" spans="1:21">
       <c r="A307" s="74" t="s">
         <v>848</v>
       </c>
@@ -23699,7 +23699,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="308" ht="27" spans="1:21">
+    <row r="308" ht="27" hidden="1" spans="1:21">
       <c r="A308" s="74" t="s">
         <v>848</v>
       </c>
@@ -23756,7 +23756,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="309" spans="1:21">
+    <row r="309" hidden="1" spans="1:21">
       <c r="A309" s="74" t="s">
         <v>848</v>
       </c>
@@ -23813,7 +23813,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="310" spans="1:21">
+    <row r="310" hidden="1" spans="1:21">
       <c r="A310" s="74" t="s">
         <v>848</v>
       </c>
@@ -23870,7 +23870,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="311" spans="1:21">
+    <row r="311" hidden="1" spans="1:21">
       <c r="A311" s="74" t="s">
         <v>848</v>
       </c>
@@ -23927,7 +23927,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="312" spans="1:21">
+    <row r="312" hidden="1" spans="1:21">
       <c r="A312" s="74" t="s">
         <v>848</v>
       </c>
@@ -23984,7 +23984,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="313" spans="1:21">
+    <row r="313" hidden="1" spans="1:21">
       <c r="A313" s="74" t="s">
         <v>848</v>
       </c>
@@ -24041,7 +24041,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="314" spans="1:21">
+    <row r="314" hidden="1" spans="1:21">
       <c r="A314" s="74" t="s">
         <v>848</v>
       </c>
@@ -24098,7 +24098,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="315" spans="1:21">
+    <row r="315" hidden="1" spans="1:21">
       <c r="A315" s="74" t="s">
         <v>848</v>
       </c>
@@ -24155,7 +24155,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="316" spans="1:21">
+    <row r="316" hidden="1" spans="1:21">
       <c r="A316" s="74" t="s">
         <v>848</v>
       </c>
@@ -24212,7 +24212,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="317" spans="1:21">
+    <row r="317" hidden="1" spans="1:21">
       <c r="A317" s="74" t="s">
         <v>848</v>
       </c>
@@ -24414,7 +24414,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="321" s="41" customFormat="1" ht="27" spans="1:52">
+    <row r="321" s="41" customFormat="1" ht="27" hidden="1" spans="1:52">
       <c r="A321" s="85" t="s">
         <v>973</v>
       </c>
@@ -24502,7 +24502,7 @@
       <c r="AY321" s="147"/>
       <c r="AZ321" s="147"/>
     </row>
-    <row r="322" s="41" customFormat="1" ht="27" spans="1:52">
+    <row r="322" s="41" customFormat="1" ht="27" hidden="1" spans="1:52">
       <c r="A322" s="85"/>
       <c r="B322" s="127"/>
       <c r="C322" s="128"/>
@@ -24582,7 +24582,7 @@
       <c r="AY322" s="147"/>
       <c r="AZ322" s="147"/>
     </row>
-    <row r="323" s="41" customFormat="1" ht="27" spans="1:52">
+    <row r="323" s="41" customFormat="1" ht="27" hidden="1" spans="1:52">
       <c r="A323" s="85"/>
       <c r="B323" s="130"/>
       <c r="C323" s="131"/>
@@ -25095,7 +25095,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="333" ht="27" spans="1:21">
+    <row r="333" ht="27" hidden="1" spans="1:21">
       <c r="A333" s="74" t="s">
         <v>973</v>
       </c>
@@ -25342,7 +25342,7 @@
       <c r="T337" s="74"/>
       <c r="U337" s="72"/>
     </row>
-    <row r="338" spans="1:21">
+    <row r="338" hidden="1" spans="1:21">
       <c r="A338" s="74" t="s">
         <v>21</v>
       </c>
@@ -25393,7 +25393,7 @@
       <c r="T338" s="74"/>
       <c r="U338" s="72"/>
     </row>
-    <row r="339" spans="1:21">
+    <row r="339" hidden="1" spans="1:21">
       <c r="A339" s="74" t="s">
         <v>686</v>
       </c>
@@ -25446,7 +25446,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="340" ht="15" customHeight="1" spans="1:21">
+    <row r="340" ht="15" hidden="1" customHeight="1" spans="1:21">
       <c r="A340" s="74" t="s">
         <v>686</v>
       </c>
@@ -25499,7 +25499,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="341" ht="24.95" customHeight="1" spans="1:21">
+    <row r="341" ht="24.95" hidden="1" customHeight="1" spans="1:21">
       <c r="A341" s="74" t="s">
         <v>686</v>
       </c>
@@ -25552,7 +25552,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="342" ht="12" customHeight="1" spans="1:21">
+    <row r="342" ht="12" hidden="1" customHeight="1" spans="1:21">
       <c r="A342" s="26" t="s">
         <v>267</v>
       </c>
@@ -25628,6 +25628,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <autoFilter ref="A1:U342">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="equal" val="0-是"/>
+      </customFilters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <mergeCells count="6">
@@ -26134,20 +26139,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K84 K89 K91 K120 K137 K145 K147 K150 K155 K167 K185 K211 K240 K249 K288 K300 K318 K338 K65:K72 K93:K94 K139:K140 K142:K143 K152:K153 K159:K162 K164:K165 K169:K170 K207:K208 K228:K230">
-      <formula1>"'=,&gt;,&lt;,&gt;=,&lt;="</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O9 O13:O15 O24:O30 O34:O35">
+      <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G73:H73 G268 H268 G269 H269 G270 H270 G271 H271 G318:H318 G338:H338 G339:H341 G305:H315 G272:H274 G48:H64 G1:H47 G65:H72 G74:H119 G120:H208 G209:H215 G342:H1048576 G216:H250 G251:H267 G275:H300 G319:H337">
       <formula1>"0-是,1-否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K84 K89 K91 K120 K137 K145 K147 K150 K155 K167 K185 K211 K240 K249 K288 K300 K318 K338 K65:K72 K93:K94 K139:K140 K142:K143 K152:K153 K159:K162 K164:K165 K169:K170 K207:K208 K228:K230">
+      <formula1>"'=,&gt;,&lt;,&gt;=,&lt;="</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K96 K192:K193">
       <formula1>"==,&gt;,&lt;,&gt;=,&lt;=,!=,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K97 K342 K186:K191">
       <formula1>"'==,&gt;,&lt;,&gt;=,&lt;="</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O9 O13:O15 O24:O30 O34:O35">
-      <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/auth/授权规则收集表汇总1.0.xlsx
+++ b/src/auth/授权规则收集表汇总1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9924"/>
+    <workbookView windowWidth="22488" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="授权规则收集" sheetId="1" r:id="rId1"/>
@@ -5402,11 +5402,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -5517,14 +5517,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -5534,6 +5526,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5556,14 +5562,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5586,7 +5639,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5594,30 +5647,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5628,36 +5658,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5700,7 +5700,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5712,13 +5736,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5730,61 +5808,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5802,85 +5868,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5950,30 +5950,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6009,11 +5985,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6025,10 +6025,10 @@
     <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6037,133 +6037,133 @@
     <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6977,10 +6977,10 @@
   <sheetPr/>
   <dimension ref="A1:AJ404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M61" sqref="M61"/>
+      <selection pane="bottomLeft" activeCell="J388" sqref="J388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7096,9 +7096,6 @@
       <c r="H2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="48"/>
       <c r="L2" s="55"/>
       <c r="O2" s="25" t="s">
         <v>29</v>
@@ -27502,11 +27499,11 @@
       <c r="O396" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="P396" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q396" s="26">
-        <v>1</v>
+      <c r="P396" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q396" s="39">
+        <v>4</v>
       </c>
       <c r="R396" s="26" t="s">
         <v>40</v>
@@ -27551,11 +27548,11 @@
       <c r="O397" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="P397" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q397" s="26">
-        <v>1</v>
+      <c r="P397" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q397" s="39">
+        <v>4</v>
       </c>
       <c r="R397" s="26" t="s">
         <v>40</v>

--- a/src/auth/授权规则收集表汇总1.0.xlsx
+++ b/src/auth/授权规则收集表汇总1.0.xlsx
@@ -5647,11 +5647,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -5775,22 +5775,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5825,17 +5817,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5846,14 +5846,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5880,17 +5872,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5910,15 +5917,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5963,19 +5963,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5987,13 +5981,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6005,55 +6017,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6071,7 +6035,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6083,7 +6047,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6095,37 +6125,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6137,13 +6143,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6185,17 +6191,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -6208,36 +6203,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6266,6 +6231,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6288,10 +6294,10 @@
     <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6300,140 +6306,140 @@
     <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6802,13 +6808,13 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -6816,6 +6822,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7298,9 +7307,9 @@
   <dimension ref="A1:AJ431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J320" sqref="J320"/>
+      <selection pane="bottomLeft" activeCell="J288" sqref="J288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7444,7 +7453,7 @@
       <c r="B3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="148" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="31" t="s">
@@ -7498,7 +7507,7 @@
       <c r="B4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="148" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="31" t="s">
@@ -7552,7 +7561,7 @@
       <c r="B5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="147" t="s">
+      <c r="C5" s="148" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="31" t="s">
@@ -7606,7 +7615,7 @@
       <c r="B6" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="148" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="31" t="s">
@@ -7660,7 +7669,7 @@
       <c r="B7" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="147" t="s">
+      <c r="C7" s="148" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="31" t="s">
@@ -7714,7 +7723,7 @@
       <c r="B8" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="147" t="s">
+      <c r="C8" s="148" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="31" t="s">
@@ -7768,7 +7777,7 @@
       <c r="B9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="147" t="s">
+      <c r="C9" s="148" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="31" t="s">
@@ -7822,7 +7831,7 @@
       <c r="B10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="147" t="s">
+      <c r="C10" s="148" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="31" t="s">
@@ -7876,7 +7885,7 @@
       <c r="B11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="148" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="31" t="s">
@@ -7930,7 +7939,7 @@
       <c r="B12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="147" t="s">
+      <c r="C12" s="148" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="31" t="s">
@@ -7984,7 +7993,7 @@
       <c r="B13" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="147" t="s">
+      <c r="C13" s="148" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="31" t="s">
@@ -8038,7 +8047,7 @@
       <c r="B14" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="147" t="s">
+      <c r="C14" s="148" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="31" t="s">
@@ -8092,7 +8101,7 @@
       <c r="B15" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="147" t="s">
+      <c r="C15" s="148" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="31" t="s">
@@ -8146,7 +8155,7 @@
       <c r="B16" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="147" t="s">
+      <c r="C16" s="148" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="31" t="s">
@@ -8200,7 +8209,7 @@
       <c r="B17" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="148" t="s">
+      <c r="C17" s="149" t="s">
         <v>71</v>
       </c>
       <c r="D17" s="31" t="s">
@@ -8251,7 +8260,7 @@
       <c r="B18" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="149" t="s">
         <v>71</v>
       </c>
       <c r="D18" s="31" t="s">
@@ -8302,7 +8311,7 @@
       <c r="B19" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="148" t="s">
+      <c r="C19" s="149" t="s">
         <v>71</v>
       </c>
       <c r="D19" s="31" t="s">
@@ -8356,7 +8365,7 @@
       <c r="B20" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="148" t="s">
+      <c r="C20" s="149" t="s">
         <v>71</v>
       </c>
       <c r="D20" s="31" t="s">
@@ -8407,7 +8416,7 @@
       <c r="B21" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="148" t="s">
+      <c r="C21" s="149" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="31" t="s">
@@ -8458,7 +8467,7 @@
       <c r="B22" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="147" t="s">
+      <c r="C22" s="148" t="s">
         <v>87</v>
       </c>
       <c r="D22" s="31" t="s">
@@ -8509,7 +8518,7 @@
       <c r="B23" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="147" t="s">
+      <c r="C23" s="148" t="s">
         <v>87</v>
       </c>
       <c r="D23" s="31" t="s">
@@ -8560,7 +8569,7 @@
       <c r="B24" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="147" t="s">
+      <c r="C24" s="148" t="s">
         <v>87</v>
       </c>
       <c r="D24" s="31" t="s">
@@ -8611,7 +8620,7 @@
       <c r="B25" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="147" t="s">
+      <c r="C25" s="148" t="s">
         <v>87</v>
       </c>
       <c r="D25" s="31" t="s">
@@ -8662,7 +8671,7 @@
       <c r="B26" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="147" t="s">
+      <c r="C26" s="148" t="s">
         <v>87</v>
       </c>
       <c r="D26" s="31" t="s">
@@ -8713,7 +8722,7 @@
       <c r="B27" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="147" t="s">
+      <c r="C27" s="148" t="s">
         <v>87</v>
       </c>
       <c r="D27" s="31" t="s">
@@ -8764,7 +8773,7 @@
       <c r="B28" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="147" t="s">
+      <c r="C28" s="148" t="s">
         <v>87</v>
       </c>
       <c r="D28" s="31" t="s">
@@ -8816,7 +8825,7 @@
       <c r="B29" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="147" t="s">
+      <c r="C29" s="148" t="s">
         <v>87</v>
       </c>
       <c r="D29" s="31" t="s">
@@ -8868,7 +8877,7 @@
       <c r="B30" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="147" t="s">
+      <c r="C30" s="148" t="s">
         <v>87</v>
       </c>
       <c r="D30" s="31" t="s">
@@ -8919,7 +8928,7 @@
       <c r="B31" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="147" t="s">
+      <c r="C31" s="148" t="s">
         <v>111</v>
       </c>
       <c r="D31" s="31" t="s">
@@ -8970,7 +8979,7 @@
       <c r="B32" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="147" t="s">
+      <c r="C32" s="148" t="s">
         <v>111</v>
       </c>
       <c r="D32" s="31" t="s">
@@ -9021,7 +9030,7 @@
       <c r="B33" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="147" t="s">
+      <c r="C33" s="148" t="s">
         <v>111</v>
       </c>
       <c r="D33" s="31" t="s">
@@ -9072,7 +9081,7 @@
       <c r="B34" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="147" t="s">
+      <c r="C34" s="148" t="s">
         <v>111</v>
       </c>
       <c r="D34" s="31" t="s">
@@ -9123,7 +9132,7 @@
       <c r="B35" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="147" t="s">
+      <c r="C35" s="148" t="s">
         <v>111</v>
       </c>
       <c r="D35" s="31" t="s">
@@ -9414,7 +9423,7 @@
       <c r="J40" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="K40" s="149" t="s">
+      <c r="K40" s="150" t="s">
         <v>40</v>
       </c>
       <c r="L40" s="73" t="s">
@@ -9468,7 +9477,7 @@
       <c r="J41" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="K41" s="150" t="s">
+      <c r="K41" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L41" s="48" t="s">
@@ -9522,7 +9531,7 @@
       <c r="J42" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="K42" s="150" t="s">
+      <c r="K42" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L42" s="48" t="s">
@@ -9552,7 +9561,7 @@
       <c r="B43" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="147" t="s">
+      <c r="C43" s="148" t="s">
         <v>156</v>
       </c>
       <c r="D43" s="31" t="s">
@@ -9597,7 +9606,7 @@
       <c r="B44" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="147" t="s">
+      <c r="C44" s="148" t="s">
         <v>161</v>
       </c>
       <c r="D44" s="31" t="s">
@@ -9621,7 +9630,7 @@
       <c r="J44" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="K44" s="150" t="s">
+      <c r="K44" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L44" s="48">
@@ -9654,7 +9663,7 @@
       <c r="B45" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="147" t="s">
+      <c r="C45" s="148" t="s">
         <v>161</v>
       </c>
       <c r="D45" s="31" t="s">
@@ -9678,7 +9687,7 @@
       <c r="J45" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="K45" s="150" t="s">
+      <c r="K45" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L45" s="48">
@@ -9711,7 +9720,7 @@
       <c r="B46" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="C46" s="148" t="s">
+      <c r="C46" s="149" t="s">
         <v>168</v>
       </c>
       <c r="D46" s="31" t="s">
@@ -9735,7 +9744,7 @@
       <c r="J46" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="K46" s="150" t="s">
+      <c r="K46" s="151" t="s">
         <v>172</v>
       </c>
       <c r="L46" s="48">
@@ -9768,7 +9777,7 @@
       <c r="B47" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="148" t="s">
+      <c r="C47" s="149" t="s">
         <v>168</v>
       </c>
       <c r="D47" s="31" t="s">
@@ -9792,7 +9801,7 @@
       <c r="J47" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="K47" s="150" t="s">
+      <c r="K47" s="151" t="s">
         <v>172</v>
       </c>
       <c r="L47" s="48">
@@ -9889,7 +9898,7 @@
       <c r="J49" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="K49" s="150" t="s">
+      <c r="K49" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L49" s="48">
@@ -9943,7 +9952,7 @@
       <c r="J50" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="K50" s="149" t="s">
+      <c r="K50" s="150" t="s">
         <v>40</v>
       </c>
       <c r="L50" s="73">
@@ -10051,7 +10060,7 @@
       <c r="J52" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="K52" s="150" t="s">
+      <c r="K52" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L52" s="48">
@@ -10105,7 +10114,7 @@
       <c r="J53" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="K53" s="149" t="s">
+      <c r="K53" s="150" t="s">
         <v>40</v>
       </c>
       <c r="L53" s="73">
@@ -10159,7 +10168,7 @@
       <c r="J54" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="K54" s="150" t="s">
+      <c r="K54" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L54" s="48">
@@ -10213,7 +10222,7 @@
       <c r="J55" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="K55" s="149" t="s">
+      <c r="K55" s="150" t="s">
         <v>40</v>
       </c>
       <c r="L55" s="73">
@@ -10267,7 +10276,7 @@
       <c r="J56" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="K56" s="150" t="s">
+      <c r="K56" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L56" s="48">
@@ -10321,7 +10330,7 @@
       <c r="J57" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="K57" s="150" t="s">
+      <c r="K57" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L57" s="73" t="s">
@@ -10375,7 +10384,7 @@
       <c r="J58" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="K58" s="149" t="s">
+      <c r="K58" s="150" t="s">
         <v>40</v>
       </c>
       <c r="L58" s="73">
@@ -10480,7 +10489,7 @@
       <c r="J60" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="K60" s="151" t="s">
+      <c r="K60" s="152" t="s">
         <v>40</v>
       </c>
       <c r="L60" s="80">
@@ -10592,7 +10601,7 @@
       <c r="J62" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="K62" s="151" t="s">
+      <c r="K62" s="152" t="s">
         <v>40</v>
       </c>
       <c r="L62" s="79" t="s">
@@ -10649,7 +10658,7 @@
       <c r="J63" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="K63" s="151" t="s">
+      <c r="K63" s="152" t="s">
         <v>223</v>
       </c>
       <c r="L63" s="79" t="s">
@@ -10706,7 +10715,7 @@
       <c r="J64" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="K64" s="151" t="s">
+      <c r="K64" s="152" t="s">
         <v>40</v>
       </c>
       <c r="L64" s="79" t="s">
@@ -10763,7 +10772,7 @@
       <c r="J65" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="K65" s="151" t="s">
+      <c r="K65" s="152" t="s">
         <v>40</v>
       </c>
       <c r="L65" s="79" t="s">
@@ -10820,10 +10829,10 @@
       <c r="J66" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="K66" s="151" t="s">
+      <c r="K66" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="L66" s="151" t="s">
+      <c r="L66" s="152" t="s">
         <v>233</v>
       </c>
       <c r="M66" s="67"/>
@@ -10879,7 +10888,7 @@
       <c r="J67" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="K67" s="151" t="s">
+      <c r="K67" s="152" t="s">
         <v>40</v>
       </c>
       <c r="L67" s="79" t="s">
@@ -10938,7 +10947,7 @@
       <c r="J68" s="67" t="s">
         <v>238</v>
       </c>
-      <c r="K68" s="151" t="s">
+      <c r="K68" s="152" t="s">
         <v>40</v>
       </c>
       <c r="L68" s="79" t="s">
@@ -10997,7 +11006,7 @@
       <c r="J69" s="67" t="s">
         <v>241</v>
       </c>
-      <c r="K69" s="151" t="s">
+      <c r="K69" s="152" t="s">
         <v>190</v>
       </c>
       <c r="L69" s="79" t="s">
@@ -11056,7 +11065,7 @@
       <c r="J70" s="67" t="s">
         <v>238</v>
       </c>
-      <c r="K70" s="151" t="s">
+      <c r="K70" s="152" t="s">
         <v>40</v>
       </c>
       <c r="L70" s="79" t="s">
@@ -11174,7 +11183,7 @@
       <c r="J72" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="K72" s="151" t="s">
+      <c r="K72" s="152" t="s">
         <v>246</v>
       </c>
       <c r="L72" s="79" t="s">
@@ -11292,7 +11301,7 @@
       <c r="J74" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="K74" s="151" t="s">
+      <c r="K74" s="152" t="s">
         <v>40</v>
       </c>
       <c r="L74" s="79" t="s">
@@ -11351,7 +11360,7 @@
       <c r="J75" s="67" t="s">
         <v>238</v>
       </c>
-      <c r="K75" s="151" t="s">
+      <c r="K75" s="152" t="s">
         <v>40</v>
       </c>
       <c r="L75" s="79" t="s">
@@ -11528,7 +11537,7 @@
       <c r="J78" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="K78" s="151" t="s">
+      <c r="K78" s="152" t="s">
         <v>40</v>
       </c>
       <c r="L78" s="79" t="s">
@@ -11587,7 +11596,7 @@
       <c r="J79" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="K79" s="151" t="s">
+      <c r="K79" s="152" t="s">
         <v>207</v>
       </c>
       <c r="L79" s="80">
@@ -11644,7 +11653,7 @@
       <c r="J80" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="K80" s="150" t="s">
+      <c r="K80" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L80" s="73" t="s">
@@ -11718,7 +11727,7 @@
       <c r="J81" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="K81" s="150" t="s">
+      <c r="K81" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L81" s="73" t="s">
@@ -11830,7 +11839,7 @@
       <c r="J83" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="K83" s="150" t="s">
+      <c r="K83" s="151" t="s">
         <v>190</v>
       </c>
       <c r="L83" s="48">
@@ -11887,7 +11896,7 @@
       <c r="J84" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="K84" s="150" t="s">
+      <c r="K84" s="151" t="s">
         <v>190</v>
       </c>
       <c r="L84" s="48">
@@ -11944,7 +11953,7 @@
       <c r="J85" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="K85" s="150" t="s">
+      <c r="K85" s="151" t="s">
         <v>190</v>
       </c>
       <c r="L85" s="48">
@@ -12001,7 +12010,7 @@
       <c r="J86" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="K86" s="150" t="s">
+      <c r="K86" s="151" t="s">
         <v>172</v>
       </c>
       <c r="L86" s="48">
@@ -12058,7 +12067,7 @@
       <c r="J87" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="K87" s="150" t="s">
+      <c r="K87" s="151" t="s">
         <v>172</v>
       </c>
       <c r="L87" s="48">
@@ -12115,7 +12124,7 @@
       <c r="J88" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="K88" s="150" t="s">
+      <c r="K88" s="151" t="s">
         <v>172</v>
       </c>
       <c r="L88" s="48">
@@ -12172,7 +12181,7 @@
       <c r="J89" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="K89" s="150" t="s">
+      <c r="K89" s="151" t="s">
         <v>172</v>
       </c>
       <c r="L89" s="48">
@@ -12229,7 +12238,7 @@
       <c r="J90" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="K90" s="150" t="s">
+      <c r="K90" s="151" t="s">
         <v>172</v>
       </c>
       <c r="L90" s="48">
@@ -12401,7 +12410,7 @@
       <c r="B94" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="C94" s="147" t="s">
+      <c r="C94" s="148" t="s">
         <v>306</v>
       </c>
       <c r="D94" s="31" t="s">
@@ -12443,7 +12452,7 @@
       <c r="B95" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="C95" s="152" t="s">
+      <c r="C95" s="153" t="s">
         <v>311</v>
       </c>
       <c r="D95" s="31" t="s">
@@ -12467,7 +12476,7 @@
       <c r="J95" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="K95" s="150" t="s">
+      <c r="K95" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L95" s="48">
@@ -12500,7 +12509,7 @@
       <c r="B96" s="83" t="s">
         <v>317</v>
       </c>
-      <c r="C96" s="153" t="s">
+      <c r="C96" s="154" t="s">
         <v>318</v>
       </c>
       <c r="D96" s="85" t="s">
@@ -12561,7 +12570,7 @@
       <c r="B97" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="C97" s="154" t="s">
+      <c r="C97" s="155" t="s">
         <v>330</v>
       </c>
       <c r="D97" s="31" t="s">
@@ -12585,7 +12594,7 @@
       <c r="J97" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="K97" s="150" t="s">
+      <c r="K97" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L97" s="48">
@@ -12615,7 +12624,7 @@
       <c r="B98" s="83" t="s">
         <v>335</v>
       </c>
-      <c r="C98" s="153" t="s">
+      <c r="C98" s="154" t="s">
         <v>336</v>
       </c>
       <c r="D98" s="85" t="s">
@@ -12676,7 +12685,7 @@
       <c r="B99" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="C99" s="147" t="s">
+      <c r="C99" s="148" t="s">
         <v>342</v>
       </c>
       <c r="D99" s="31" t="s">
@@ -12700,7 +12709,7 @@
       <c r="J99" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="K99" s="150" t="s">
+      <c r="K99" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L99" s="48" t="s">
@@ -12730,7 +12739,7 @@
       <c r="B100" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="C100" s="154" t="s">
+      <c r="C100" s="155" t="s">
         <v>349</v>
       </c>
       <c r="D100" s="31" t="s">
@@ -12754,7 +12763,7 @@
       <c r="J100" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="K100" s="150" t="s">
+      <c r="K100" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L100" s="48">
@@ -12787,7 +12796,7 @@
       <c r="B101" s="40" t="s">
         <v>352</v>
       </c>
-      <c r="C101" s="154" t="s">
+      <c r="C101" s="155" t="s">
         <v>353</v>
       </c>
       <c r="D101" s="31" t="s">
@@ -12811,7 +12820,7 @@
       <c r="J101" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="K101" s="150" t="s">
+      <c r="K101" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L101" s="48">
@@ -12841,7 +12850,7 @@
       <c r="B102" s="40" t="s">
         <v>352</v>
       </c>
-      <c r="C102" s="154" t="s">
+      <c r="C102" s="155" t="s">
         <v>353</v>
       </c>
       <c r="D102" s="31" t="s">
@@ -12865,7 +12874,7 @@
       <c r="J102" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="K102" s="150" t="s">
+      <c r="K102" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L102" s="48">
@@ -12898,7 +12907,7 @@
       <c r="B103" s="40" t="s">
         <v>360</v>
       </c>
-      <c r="C103" s="154" t="s">
+      <c r="C103" s="155" t="s">
         <v>361</v>
       </c>
       <c r="D103" s="31" t="s">
@@ -12922,7 +12931,7 @@
       <c r="J103" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="K103" s="150" t="s">
+      <c r="K103" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L103" s="48">
@@ -12952,7 +12961,7 @@
       <c r="B104" s="40" t="s">
         <v>360</v>
       </c>
-      <c r="C104" s="154" t="s">
+      <c r="C104" s="155" t="s">
         <v>361</v>
       </c>
       <c r="D104" s="31" t="s">
@@ -13006,7 +13015,7 @@
       <c r="B105" s="83" t="s">
         <v>366</v>
       </c>
-      <c r="C105" s="153" t="s">
+      <c r="C105" s="154" t="s">
         <v>367</v>
       </c>
       <c r="D105" s="85" t="s">
@@ -13067,7 +13076,7 @@
       <c r="B106" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="C106" s="154" t="s">
+      <c r="C106" s="155" t="s">
         <v>375</v>
       </c>
       <c r="D106" s="31" t="s">
@@ -13121,7 +13130,7 @@
       <c r="B107" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="C107" s="154" t="s">
+      <c r="C107" s="155" t="s">
         <v>375</v>
       </c>
       <c r="D107" s="31" t="s">
@@ -13145,7 +13154,7 @@
       <c r="J107" s="89" t="s">
         <v>220</v>
       </c>
-      <c r="K107" s="150" t="s">
+      <c r="K107" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L107" s="99">
@@ -13175,7 +13184,7 @@
       <c r="B108" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="C108" s="154" t="s">
+      <c r="C108" s="155" t="s">
         <v>379</v>
       </c>
       <c r="D108" s="31" t="s">
@@ -13199,7 +13208,7 @@
       <c r="J108" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="K108" s="150" t="s">
+      <c r="K108" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L108" s="48">
@@ -13229,7 +13238,7 @@
       <c r="B109" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="C109" s="154" t="s">
+      <c r="C109" s="155" t="s">
         <v>379</v>
       </c>
       <c r="D109" s="31" t="s">
@@ -13307,7 +13316,7 @@
       <c r="J110" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="K110" s="150" t="s">
+      <c r="K110" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L110" s="48">
@@ -13415,7 +13424,7 @@
       <c r="J112" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="K112" s="150" t="s">
+      <c r="K112" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L112" s="48">
@@ -13499,7 +13508,7 @@
       <c r="B114" s="40" t="s">
         <v>390</v>
       </c>
-      <c r="C114" s="154" t="s">
+      <c r="C114" s="155" t="s">
         <v>391</v>
       </c>
       <c r="D114" s="31" t="s">
@@ -13523,7 +13532,7 @@
       <c r="J114" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="K114" s="150" t="s">
+      <c r="K114" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L114" s="48" t="s">
@@ -13553,7 +13562,7 @@
       <c r="B115" s="40" t="s">
         <v>390</v>
       </c>
-      <c r="C115" s="154" t="s">
+      <c r="C115" s="155" t="s">
         <v>391</v>
       </c>
       <c r="D115" s="31" t="s">
@@ -13577,7 +13586,7 @@
       <c r="J115" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="K115" s="150" t="s">
+      <c r="K115" s="151" t="s">
         <v>207</v>
       </c>
       <c r="L115" s="48" t="s">
@@ -13607,7 +13616,7 @@
       <c r="B116" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="C116" s="147" t="s">
+      <c r="C116" s="148" t="s">
         <v>395</v>
       </c>
       <c r="D116" s="31" t="s">
@@ -13631,7 +13640,7 @@
       <c r="J116" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="K116" s="150" t="s">
+      <c r="K116" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L116" s="47">
@@ -13661,7 +13670,7 @@
       <c r="B117" s="40" t="s">
         <v>401</v>
       </c>
-      <c r="C117" s="154" t="s">
+      <c r="C117" s="155" t="s">
         <v>402</v>
       </c>
       <c r="D117" s="31" t="s">
@@ -13685,7 +13694,7 @@
       <c r="J117" s="47" t="s">
         <v>407</v>
       </c>
-      <c r="K117" s="150" t="s">
+      <c r="K117" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L117" s="47">
@@ -13715,7 +13724,7 @@
       <c r="B118" s="83" t="s">
         <v>408</v>
       </c>
-      <c r="C118" s="153" t="s">
+      <c r="C118" s="154" t="s">
         <v>409</v>
       </c>
       <c r="D118" s="85" t="s">
@@ -13776,7 +13785,7 @@
       <c r="B119" s="40" t="s">
         <v>408</v>
       </c>
-      <c r="C119" s="154" t="s">
+      <c r="C119" s="155" t="s">
         <v>409</v>
       </c>
       <c r="D119" s="31" t="s">
@@ -13830,7 +13839,7 @@
       <c r="B120" s="40" t="s">
         <v>408</v>
       </c>
-      <c r="C120" s="154" t="s">
+      <c r="C120" s="155" t="s">
         <v>409</v>
       </c>
       <c r="D120" s="31" t="s">
@@ -13854,7 +13863,7 @@
       <c r="J120" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="K120" s="155" t="s">
+      <c r="K120" s="156" t="s">
         <v>40</v>
       </c>
       <c r="L120" s="101">
@@ -13884,7 +13893,7 @@
       <c r="B121" s="40" t="s">
         <v>424</v>
       </c>
-      <c r="C121" s="154" t="s">
+      <c r="C121" s="155" t="s">
         <v>425</v>
       </c>
       <c r="D121" s="31" t="s">
@@ -13908,7 +13917,7 @@
       <c r="J121" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="K121" s="156" t="s">
+      <c r="K121" s="157" t="s">
         <v>40</v>
       </c>
       <c r="L121" s="48">
@@ -13938,7 +13947,7 @@
       <c r="B122" s="83" t="s">
         <v>424</v>
       </c>
-      <c r="C122" s="153" t="s">
+      <c r="C122" s="154" t="s">
         <v>425</v>
       </c>
       <c r="D122" s="85" t="s">
@@ -13999,7 +14008,7 @@
       <c r="B123" s="92" t="s">
         <v>435</v>
       </c>
-      <c r="C123" s="157" t="s">
+      <c r="C123" s="158" t="s">
         <v>436</v>
       </c>
       <c r="D123" s="94" t="s">
@@ -14056,7 +14065,7 @@
       <c r="B124" s="92" t="s">
         <v>435</v>
       </c>
-      <c r="C124" s="157" t="s">
+      <c r="C124" s="158" t="s">
         <v>436</v>
       </c>
       <c r="D124" s="94" t="s">
@@ -14080,7 +14089,7 @@
       <c r="J124" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="K124" s="158" t="s">
+      <c r="K124" s="159" t="s">
         <v>40</v>
       </c>
       <c r="L124" s="103">
@@ -14113,7 +14122,7 @@
       <c r="B125" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="C125" s="154" t="s">
+      <c r="C125" s="155" t="s">
         <v>436</v>
       </c>
       <c r="D125" s="31" t="s">
@@ -14137,7 +14146,7 @@
       <c r="J125" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="K125" s="150" t="s">
+      <c r="K125" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L125" s="48">
@@ -14167,7 +14176,7 @@
       <c r="B126" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="C126" s="154" t="s">
+      <c r="C126" s="155" t="s">
         <v>436</v>
       </c>
       <c r="D126" s="31" t="s">
@@ -14191,7 +14200,7 @@
       <c r="J126" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="K126" s="150" t="s">
+      <c r="K126" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L126" s="48">
@@ -14221,7 +14230,7 @@
       <c r="B127" s="83" t="s">
         <v>435</v>
       </c>
-      <c r="C127" s="153" t="s">
+      <c r="C127" s="154" t="s">
         <v>436</v>
       </c>
       <c r="D127" s="85" t="s">
@@ -14282,7 +14291,7 @@
       <c r="B128" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="C128" s="154" t="s">
+      <c r="C128" s="155" t="s">
         <v>449</v>
       </c>
       <c r="D128" s="46" t="s">
@@ -14306,7 +14315,7 @@
       <c r="J128" s="28" t="s">
         <v>454</v>
       </c>
-      <c r="K128" s="150" t="s">
+      <c r="K128" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L128" s="48">
@@ -14336,7 +14345,7 @@
       <c r="B129" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="C129" s="154" t="s">
+      <c r="C129" s="155" t="s">
         <v>449</v>
       </c>
       <c r="D129" s="46" t="s">
@@ -14360,7 +14369,7 @@
       <c r="J129" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="K129" s="150" t="s">
+      <c r="K129" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L129" s="48">
@@ -14390,7 +14399,7 @@
       <c r="B130" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="C130" s="154" t="s">
+      <c r="C130" s="155" t="s">
         <v>449</v>
       </c>
       <c r="D130" s="46" t="s">
@@ -14414,7 +14423,7 @@
       <c r="J130" s="28" t="s">
         <v>454</v>
       </c>
-      <c r="K130" s="150" t="s">
+      <c r="K130" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L130" s="48" t="s">
@@ -14444,7 +14453,7 @@
       <c r="B131" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="C131" s="154" t="s">
+      <c r="C131" s="155" t="s">
         <v>449</v>
       </c>
       <c r="D131" s="46" t="s">
@@ -14468,7 +14477,7 @@
       <c r="J131" s="28" t="s">
         <v>460</v>
       </c>
-      <c r="K131" s="150" t="s">
+      <c r="K131" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L131" s="48">
@@ -14498,7 +14507,7 @@
       <c r="B132" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="C132" s="154" t="s">
+      <c r="C132" s="155" t="s">
         <v>449</v>
       </c>
       <c r="D132" s="46" t="s">
@@ -14522,7 +14531,7 @@
       <c r="J132" s="28" t="s">
         <v>454</v>
       </c>
-      <c r="K132" s="150" t="s">
+      <c r="K132" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L132" s="48" t="s">
@@ -14552,7 +14561,7 @@
       <c r="B133" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="C133" s="154" t="s">
+      <c r="C133" s="155" t="s">
         <v>449</v>
       </c>
       <c r="D133" s="46" t="s">
@@ -14576,7 +14585,7 @@
       <c r="J133" s="28" t="s">
         <v>464</v>
       </c>
-      <c r="K133" s="150" t="s">
+      <c r="K133" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L133" s="48">
@@ -14606,7 +14615,7 @@
       <c r="B134" s="106" t="s">
         <v>448</v>
       </c>
-      <c r="C134" s="154" t="s">
+      <c r="C134" s="155" t="s">
         <v>449</v>
       </c>
       <c r="D134" s="46" t="s">
@@ -14630,7 +14639,7 @@
       <c r="J134" s="28" t="s">
         <v>454</v>
       </c>
-      <c r="K134" s="150" t="s">
+      <c r="K134" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L134" s="48" t="s">
@@ -14660,7 +14669,7 @@
       <c r="B135" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="C135" s="154" t="s">
+      <c r="C135" s="155" t="s">
         <v>449</v>
       </c>
       <c r="D135" s="46" t="s">
@@ -14684,7 +14693,7 @@
       <c r="J135" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="K135" s="150" t="s">
+      <c r="K135" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L135" s="48">
@@ -14714,7 +14723,7 @@
       <c r="B136" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="C136" s="154" t="s">
+      <c r="C136" s="155" t="s">
         <v>449</v>
       </c>
       <c r="D136" s="46" t="s">
@@ -14738,7 +14747,7 @@
       <c r="J136" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="K136" s="150" t="s">
+      <c r="K136" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L136" s="48">
@@ -14768,7 +14777,7 @@
       <c r="B137" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="C137" s="154" t="s">
+      <c r="C137" s="155" t="s">
         <v>474</v>
       </c>
       <c r="D137" s="46" t="s">
@@ -14792,7 +14801,7 @@
       <c r="J137" s="28" t="s">
         <v>454</v>
       </c>
-      <c r="K137" s="150" t="s">
+      <c r="K137" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L137" s="48">
@@ -14822,7 +14831,7 @@
       <c r="B138" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="C138" s="154" t="s">
+      <c r="C138" s="155" t="s">
         <v>474</v>
       </c>
       <c r="D138" s="46" t="s">
@@ -14846,7 +14855,7 @@
       <c r="J138" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="K138" s="150" t="s">
+      <c r="K138" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L138" s="48">
@@ -14876,7 +14885,7 @@
       <c r="B139" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="C139" s="154" t="s">
+      <c r="C139" s="155" t="s">
         <v>474</v>
       </c>
       <c r="D139" s="46" t="s">
@@ -14900,7 +14909,7 @@
       <c r="J139" s="28" t="s">
         <v>454</v>
       </c>
-      <c r="K139" s="150" t="s">
+      <c r="K139" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L139" s="48" t="s">
@@ -14930,7 +14939,7 @@
       <c r="B140" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="C140" s="154" t="s">
+      <c r="C140" s="155" t="s">
         <v>474</v>
       </c>
       <c r="D140" s="46" t="s">
@@ -14954,7 +14963,7 @@
       <c r="J140" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="K140" s="150" t="s">
+      <c r="K140" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L140" s="48">
@@ -14984,7 +14993,7 @@
       <c r="B141" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="C141" s="154" t="s">
+      <c r="C141" s="155" t="s">
         <v>474</v>
       </c>
       <c r="D141" s="46" t="s">
@@ -15008,7 +15017,7 @@
       <c r="J141" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="K141" s="150" t="s">
+      <c r="K141" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L141" s="48">
@@ -15038,7 +15047,7 @@
       <c r="B142" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="C142" s="154" t="s">
+      <c r="C142" s="155" t="s">
         <v>474</v>
       </c>
       <c r="D142" s="46" t="s">
@@ -15062,7 +15071,7 @@
       <c r="J142" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="K142" s="150" t="s">
+      <c r="K142" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L142" s="48">
@@ -15092,7 +15101,7 @@
       <c r="B143" s="105" t="s">
         <v>486</v>
       </c>
-      <c r="C143" s="159" t="s">
+      <c r="C143" s="160" t="s">
         <v>487</v>
       </c>
       <c r="D143" s="108" t="s">
@@ -15138,7 +15147,7 @@
       <c r="B144" s="38" t="s">
         <v>486</v>
       </c>
-      <c r="C144" s="160" t="s">
+      <c r="C144" s="161" t="s">
         <v>487</v>
       </c>
       <c r="D144" s="108" t="s">
@@ -15178,7 +15187,7 @@
       <c r="B145" s="38" t="s">
         <v>491</v>
       </c>
-      <c r="C145" s="160" t="s">
+      <c r="C145" s="161" t="s">
         <v>492</v>
       </c>
       <c r="D145" s="108" t="s">
@@ -15218,7 +15227,7 @@
       <c r="B146" s="106" t="s">
         <v>495</v>
       </c>
-      <c r="C146" s="154" t="s">
+      <c r="C146" s="155" t="s">
         <v>496</v>
       </c>
       <c r="D146" s="46" t="s">
@@ -15260,7 +15269,7 @@
       <c r="B147" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="C147" s="154" t="s">
+      <c r="C147" s="155" t="s">
         <v>502</v>
       </c>
       <c r="D147" s="46" t="s">
@@ -15284,7 +15293,7 @@
       <c r="J147" s="28" t="s">
         <v>506</v>
       </c>
-      <c r="K147" s="150" t="s">
+      <c r="K147" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L147" s="48">
@@ -15314,7 +15323,7 @@
       <c r="B148" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="C148" s="154" t="s">
+      <c r="C148" s="155" t="s">
         <v>502</v>
       </c>
       <c r="D148" s="46" t="s">
@@ -15368,7 +15377,7 @@
       <c r="B149" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="C149" s="154" t="s">
+      <c r="C149" s="155" t="s">
         <v>502</v>
       </c>
       <c r="D149" s="46" t="s">
@@ -15392,7 +15401,7 @@
       <c r="J149" s="89" t="s">
         <v>513</v>
       </c>
-      <c r="K149" s="150" t="s">
+      <c r="K149" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L149" s="99">
@@ -15422,7 +15431,7 @@
       <c r="B150" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="C150" s="154" t="s">
+      <c r="C150" s="155" t="s">
         <v>502</v>
       </c>
       <c r="D150" s="46" t="s">
@@ -15446,7 +15455,7 @@
       <c r="J150" s="89" t="s">
         <v>506</v>
       </c>
-      <c r="K150" s="150" t="s">
+      <c r="K150" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L150" s="99">
@@ -15476,7 +15485,7 @@
       <c r="B151" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="C151" s="154" t="s">
+      <c r="C151" s="155" t="s">
         <v>502</v>
       </c>
       <c r="D151" s="46" t="s">
@@ -15530,7 +15539,7 @@
       <c r="B152" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="C152" s="154" t="s">
+      <c r="C152" s="155" t="s">
         <v>502</v>
       </c>
       <c r="D152" s="46" t="s">
@@ -15554,7 +15563,7 @@
       <c r="J152" s="28" t="s">
         <v>513</v>
       </c>
-      <c r="K152" s="150" t="s">
+      <c r="K152" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L152" s="48">
@@ -15584,7 +15593,7 @@
       <c r="B153" s="40" t="s">
         <v>516</v>
       </c>
-      <c r="C153" s="154" t="s">
+      <c r="C153" s="155" t="s">
         <v>517</v>
       </c>
       <c r="D153" s="46" t="s">
@@ -15608,7 +15617,7 @@
       <c r="J153" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="K153" s="150" t="s">
+      <c r="K153" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L153" s="48">
@@ -15641,7 +15650,7 @@
       <c r="B154" s="40" t="s">
         <v>516</v>
       </c>
-      <c r="C154" s="154" t="s">
+      <c r="C154" s="155" t="s">
         <v>517</v>
       </c>
       <c r="D154" s="46" t="s">
@@ -15695,7 +15704,7 @@
       <c r="B155" s="40" t="s">
         <v>516</v>
       </c>
-      <c r="C155" s="152" t="s">
+      <c r="C155" s="153" t="s">
         <v>517</v>
       </c>
       <c r="D155" s="46" t="s">
@@ -15719,7 +15728,7 @@
       <c r="J155" s="89" t="s">
         <v>513</v>
       </c>
-      <c r="K155" s="150" t="s">
+      <c r="K155" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L155" s="99">
@@ -15749,7 +15758,7 @@
       <c r="B156" s="40" t="s">
         <v>516</v>
       </c>
-      <c r="C156" s="152" t="s">
+      <c r="C156" s="153" t="s">
         <v>517</v>
       </c>
       <c r="D156" s="46" t="s">
@@ -15773,7 +15782,7 @@
       <c r="J156" s="89" t="s">
         <v>506</v>
       </c>
-      <c r="K156" s="150" t="s">
+      <c r="K156" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L156" s="99">
@@ -15803,7 +15812,7 @@
       <c r="B157" s="40" t="s">
         <v>516</v>
       </c>
-      <c r="C157" s="152" t="s">
+      <c r="C157" s="153" t="s">
         <v>517</v>
       </c>
       <c r="D157" s="46" t="s">
@@ -15857,7 +15866,7 @@
       <c r="B158" s="40" t="s">
         <v>516</v>
       </c>
-      <c r="C158" s="154" t="s">
+      <c r="C158" s="155" t="s">
         <v>517</v>
       </c>
       <c r="D158" s="46" t="s">
@@ -15881,7 +15890,7 @@
       <c r="J158" s="28" t="s">
         <v>513</v>
       </c>
-      <c r="K158" s="150" t="s">
+      <c r="K158" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L158" s="48">
@@ -15911,7 +15920,7 @@
       <c r="B159" s="40" t="s">
         <v>524</v>
       </c>
-      <c r="C159" s="154" t="s">
+      <c r="C159" s="155" t="s">
         <v>525</v>
       </c>
       <c r="D159" s="46" t="s">
@@ -15935,7 +15944,7 @@
       <c r="J159" s="28" t="s">
         <v>510</v>
       </c>
-      <c r="K159" s="150" t="s">
+      <c r="K159" s="151" t="s">
         <v>223</v>
       </c>
       <c r="L159" s="48" t="s">
@@ -15965,7 +15974,7 @@
       <c r="B160" s="40" t="s">
         <v>524</v>
       </c>
-      <c r="C160" s="154" t="s">
+      <c r="C160" s="155" t="s">
         <v>525</v>
       </c>
       <c r="D160" s="46" t="s">
@@ -15989,7 +15998,7 @@
       <c r="J160" s="28" t="s">
         <v>531</v>
       </c>
-      <c r="K160" s="150" t="s">
+      <c r="K160" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L160" s="48">
@@ -16019,7 +16028,7 @@
       <c r="B161" s="40" t="s">
         <v>524</v>
       </c>
-      <c r="C161" s="154" t="s">
+      <c r="C161" s="155" t="s">
         <v>525</v>
       </c>
       <c r="D161" s="46" t="s">
@@ -16073,7 +16082,7 @@
       <c r="B162" s="40" t="s">
         <v>524</v>
       </c>
-      <c r="C162" s="154" t="s">
+      <c r="C162" s="155" t="s">
         <v>525</v>
       </c>
       <c r="D162" s="46" t="s">
@@ -16097,7 +16106,7 @@
       <c r="J162" s="28" t="s">
         <v>513</v>
       </c>
-      <c r="K162" s="150" t="s">
+      <c r="K162" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L162" s="48">
@@ -16127,7 +16136,7 @@
       <c r="B163" s="40" t="s">
         <v>533</v>
       </c>
-      <c r="C163" s="154" t="s">
+      <c r="C163" s="155" t="s">
         <v>534</v>
       </c>
       <c r="D163" s="46" t="s">
@@ -16151,7 +16160,7 @@
       <c r="J163" s="28" t="s">
         <v>510</v>
       </c>
-      <c r="K163" s="150" t="s">
+      <c r="K163" s="151" t="s">
         <v>223</v>
       </c>
       <c r="L163" s="48" t="s">
@@ -16181,7 +16190,7 @@
       <c r="B164" s="40" t="s">
         <v>533</v>
       </c>
-      <c r="C164" s="154" t="s">
+      <c r="C164" s="155" t="s">
         <v>534</v>
       </c>
       <c r="D164" s="46" t="s">
@@ -16205,7 +16214,7 @@
       <c r="J164" s="28" t="s">
         <v>531</v>
       </c>
-      <c r="K164" s="150" t="s">
+      <c r="K164" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L164" s="48" t="s">
@@ -16235,7 +16244,7 @@
       <c r="B165" s="40" t="s">
         <v>533</v>
       </c>
-      <c r="C165" s="154" t="s">
+      <c r="C165" s="155" t="s">
         <v>534</v>
       </c>
       <c r="D165" s="46" t="s">
@@ -16289,7 +16298,7 @@
       <c r="B166" s="40" t="s">
         <v>533</v>
       </c>
-      <c r="C166" s="154" t="s">
+      <c r="C166" s="155" t="s">
         <v>534</v>
       </c>
       <c r="D166" s="46" t="s">
@@ -16313,7 +16322,7 @@
       <c r="J166" s="28" t="s">
         <v>513</v>
       </c>
-      <c r="K166" s="150" t="s">
+      <c r="K166" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L166" s="48">
@@ -16343,7 +16352,7 @@
       <c r="B167" s="40" t="s">
         <v>542</v>
       </c>
-      <c r="C167" s="154" t="s">
+      <c r="C167" s="155" t="s">
         <v>543</v>
       </c>
       <c r="D167" s="46" t="s">
@@ -16397,7 +16406,7 @@
       <c r="B168" s="40" t="s">
         <v>542</v>
       </c>
-      <c r="C168" s="154" t="s">
+      <c r="C168" s="155" t="s">
         <v>543</v>
       </c>
       <c r="D168" s="46" t="s">
@@ -16421,7 +16430,7 @@
       <c r="J168" s="89" t="s">
         <v>531</v>
       </c>
-      <c r="K168" s="150" t="s">
+      <c r="K168" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L168" s="99" t="s">
@@ -16451,7 +16460,7 @@
       <c r="B169" s="40" t="s">
         <v>542</v>
       </c>
-      <c r="C169" s="154" t="s">
+      <c r="C169" s="155" t="s">
         <v>543</v>
       </c>
       <c r="D169" s="46" t="s">
@@ -16505,7 +16514,7 @@
       <c r="B170" s="40" t="s">
         <v>542</v>
       </c>
-      <c r="C170" s="154" t="s">
+      <c r="C170" s="155" t="s">
         <v>543</v>
       </c>
       <c r="D170" s="46" t="s">
@@ -16529,7 +16538,7 @@
       <c r="J170" s="28" t="s">
         <v>513</v>
       </c>
-      <c r="K170" s="150" t="s">
+      <c r="K170" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L170" s="48">
@@ -16559,7 +16568,7 @@
       <c r="B171" s="83" t="s">
         <v>542</v>
       </c>
-      <c r="C171" s="153" t="s">
+      <c r="C171" s="154" t="s">
         <v>543</v>
       </c>
       <c r="D171" s="85" t="s">
@@ -16620,7 +16629,7 @@
       <c r="B172" s="40" t="s">
         <v>549</v>
       </c>
-      <c r="C172" s="154" t="s">
+      <c r="C172" s="155" t="s">
         <v>550</v>
       </c>
       <c r="D172" s="46" t="s">
@@ -16644,7 +16653,7 @@
       <c r="J172" s="113" t="s">
         <v>510</v>
       </c>
-      <c r="K172" s="150" t="s">
+      <c r="K172" s="151" t="s">
         <v>223</v>
       </c>
       <c r="L172" s="48" t="s">
@@ -16674,7 +16683,7 @@
       <c r="B173" s="40" t="s">
         <v>549</v>
       </c>
-      <c r="C173" s="154" t="s">
+      <c r="C173" s="155" t="s">
         <v>550</v>
       </c>
       <c r="D173" s="46" t="s">
@@ -16698,7 +16707,7 @@
       <c r="J173" s="113" t="s">
         <v>531</v>
       </c>
-      <c r="K173" s="150" t="s">
+      <c r="K173" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L173" s="48" t="s">
@@ -16728,7 +16737,7 @@
       <c r="B174" s="40" t="s">
         <v>549</v>
       </c>
-      <c r="C174" s="154" t="s">
+      <c r="C174" s="155" t="s">
         <v>550</v>
       </c>
       <c r="D174" s="46" t="s">
@@ -16752,7 +16761,7 @@
       <c r="J174" s="113" t="s">
         <v>323</v>
       </c>
-      <c r="K174" s="150" t="s">
+      <c r="K174" s="151" t="s">
         <v>207</v>
       </c>
       <c r="L174" s="48" t="s">
@@ -16782,7 +16791,7 @@
       <c r="B175" s="40" t="s">
         <v>549</v>
       </c>
-      <c r="C175" s="154" t="s">
+      <c r="C175" s="155" t="s">
         <v>550</v>
       </c>
       <c r="D175" s="46" t="s">
@@ -16806,7 +16815,7 @@
       <c r="J175" s="28" t="s">
         <v>513</v>
       </c>
-      <c r="K175" s="150" t="s">
+      <c r="K175" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L175" s="48" t="s">
@@ -16836,7 +16845,7 @@
       <c r="B176" s="83" t="s">
         <v>549</v>
       </c>
-      <c r="C176" s="153" t="s">
+      <c r="C176" s="154" t="s">
         <v>550</v>
       </c>
       <c r="D176" s="85" t="s">
@@ -16897,7 +16906,7 @@
       <c r="B177" s="106" t="s">
         <v>560</v>
       </c>
-      <c r="C177" s="161" t="s">
+      <c r="C177" s="162" t="s">
         <v>561</v>
       </c>
       <c r="D177" s="111" t="s">
@@ -16939,7 +16948,7 @@
       <c r="B178" s="83" t="s">
         <v>560</v>
       </c>
-      <c r="C178" s="153" t="s">
+      <c r="C178" s="154" t="s">
         <v>561</v>
       </c>
       <c r="D178" s="85" t="s">
@@ -16990,7 +16999,7 @@
       <c r="B179" s="40" t="s">
         <v>565</v>
       </c>
-      <c r="C179" s="154" t="s">
+      <c r="C179" s="155" t="s">
         <v>566</v>
       </c>
       <c r="D179" s="46" t="s">
@@ -17044,7 +17053,7 @@
       <c r="B180" s="40" t="s">
         <v>565</v>
       </c>
-      <c r="C180" s="154" t="s">
+      <c r="C180" s="155" t="s">
         <v>566</v>
       </c>
       <c r="D180" s="46" t="s">
@@ -17068,7 +17077,7 @@
       <c r="J180" s="89" t="s">
         <v>531</v>
       </c>
-      <c r="K180" s="150" t="s">
+      <c r="K180" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L180" s="99">
@@ -17098,7 +17107,7 @@
       <c r="B181" s="40" t="s">
         <v>565</v>
       </c>
-      <c r="C181" s="154" t="s">
+      <c r="C181" s="155" t="s">
         <v>566</v>
       </c>
       <c r="D181" s="46" t="s">
@@ -17152,7 +17161,7 @@
       <c r="B182" s="40" t="s">
         <v>565</v>
       </c>
-      <c r="C182" s="154" t="s">
+      <c r="C182" s="155" t="s">
         <v>566</v>
       </c>
       <c r="D182" s="46" t="s">
@@ -17176,7 +17185,7 @@
       <c r="J182" s="28" t="s">
         <v>513</v>
       </c>
-      <c r="K182" s="150" t="s">
+      <c r="K182" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L182" s="48">
@@ -17206,7 +17215,7 @@
       <c r="B183" s="106" t="s">
         <v>570</v>
       </c>
-      <c r="C183" s="154" t="s">
+      <c r="C183" s="155" t="s">
         <v>571</v>
       </c>
       <c r="D183" s="111" t="s">
@@ -17230,7 +17239,7 @@
       <c r="J183" s="28" t="s">
         <v>531</v>
       </c>
-      <c r="K183" s="150" t="s">
+      <c r="K183" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L183" s="48">
@@ -17260,7 +17269,7 @@
       <c r="B184" s="40" t="s">
         <v>576</v>
       </c>
-      <c r="C184" s="154" t="s">
+      <c r="C184" s="155" t="s">
         <v>577</v>
       </c>
       <c r="D184" s="46" t="s">
@@ -17314,7 +17323,7 @@
       <c r="B185" s="40" t="s">
         <v>576</v>
       </c>
-      <c r="C185" s="152" t="s">
+      <c r="C185" s="153" t="s">
         <v>577</v>
       </c>
       <c r="D185" s="46" t="s">
@@ -17371,7 +17380,7 @@
       <c r="B186" s="40" t="s">
         <v>576</v>
       </c>
-      <c r="C186" s="152" t="s">
+      <c r="C186" s="153" t="s">
         <v>577</v>
       </c>
       <c r="D186" s="46" t="s">
@@ -17395,7 +17404,7 @@
       <c r="J186" s="89" t="s">
         <v>580</v>
       </c>
-      <c r="K186" s="150" t="s">
+      <c r="K186" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L186" s="99">
@@ -17428,7 +17437,7 @@
       <c r="B187" s="40" t="s">
         <v>576</v>
       </c>
-      <c r="C187" s="152" t="s">
+      <c r="C187" s="153" t="s">
         <v>577</v>
       </c>
       <c r="D187" s="46" t="s">
@@ -17452,7 +17461,7 @@
       <c r="J187" s="89" t="s">
         <v>220</v>
       </c>
-      <c r="K187" s="150" t="s">
+      <c r="K187" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L187" s="99">
@@ -17485,7 +17494,7 @@
       <c r="B188" s="106" t="s">
         <v>576</v>
       </c>
-      <c r="C188" s="154" t="s">
+      <c r="C188" s="155" t="s">
         <v>577</v>
       </c>
       <c r="D188" s="46" t="s">
@@ -17509,7 +17518,7 @@
       <c r="J188" s="28" t="s">
         <v>580</v>
       </c>
-      <c r="K188" s="150" t="s">
+      <c r="K188" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L188" s="48">
@@ -17539,7 +17548,7 @@
       <c r="B189" s="40" t="s">
         <v>582</v>
       </c>
-      <c r="C189" s="154" t="s">
+      <c r="C189" s="155" t="s">
         <v>583</v>
       </c>
       <c r="D189" s="46" t="s">
@@ -17563,7 +17572,7 @@
       <c r="J189" s="28" t="s">
         <v>506</v>
       </c>
-      <c r="K189" s="150" t="s">
+      <c r="K189" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L189" s="48">
@@ -17593,7 +17602,7 @@
       <c r="B190" s="40" t="s">
         <v>582</v>
       </c>
-      <c r="C190" s="154" t="s">
+      <c r="C190" s="155" t="s">
         <v>583</v>
       </c>
       <c r="D190" s="46" t="s">
@@ -17647,7 +17656,7 @@
       <c r="B191" s="40" t="s">
         <v>582</v>
       </c>
-      <c r="C191" s="154" t="s">
+      <c r="C191" s="155" t="s">
         <v>583</v>
       </c>
       <c r="D191" s="46" t="s">
@@ -17671,7 +17680,7 @@
       <c r="J191" s="89" t="s">
         <v>531</v>
       </c>
-      <c r="K191" s="150" t="s">
+      <c r="K191" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L191" s="99">
@@ -17701,7 +17710,7 @@
       <c r="B192" s="40" t="s">
         <v>582</v>
       </c>
-      <c r="C192" s="154" t="s">
+      <c r="C192" s="155" t="s">
         <v>583</v>
       </c>
       <c r="D192" s="46" t="s">
@@ -17755,7 +17764,7 @@
       <c r="B193" s="106" t="s">
         <v>582</v>
       </c>
-      <c r="C193" s="154" t="s">
+      <c r="C193" s="155" t="s">
         <v>583</v>
       </c>
       <c r="D193" s="46" t="s">
@@ -17779,7 +17788,7 @@
       <c r="J193" s="28" t="s">
         <v>513</v>
       </c>
-      <c r="K193" s="150" t="s">
+      <c r="K193" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L193" s="48">
@@ -17809,7 +17818,7 @@
       <c r="B194" s="40" t="s">
         <v>588</v>
       </c>
-      <c r="C194" s="154" t="s">
+      <c r="C194" s="155" t="s">
         <v>589</v>
       </c>
       <c r="D194" s="46" t="s">
@@ -17863,7 +17872,7 @@
       <c r="B195" s="40" t="s">
         <v>588</v>
       </c>
-      <c r="C195" s="154" t="s">
+      <c r="C195" s="155" t="s">
         <v>589</v>
       </c>
       <c r="D195" s="46" t="s">
@@ -17887,7 +17896,7 @@
       <c r="J195" s="89" t="s">
         <v>513</v>
       </c>
-      <c r="K195" s="150" t="s">
+      <c r="K195" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L195" s="99">
@@ -17917,7 +17926,7 @@
       <c r="B196" s="40" t="s">
         <v>588</v>
       </c>
-      <c r="C196" s="154" t="s">
+      <c r="C196" s="155" t="s">
         <v>589</v>
       </c>
       <c r="D196" s="46" t="s">
@@ -17941,7 +17950,7 @@
       <c r="J196" s="89" t="s">
         <v>506</v>
       </c>
-      <c r="K196" s="150" t="s">
+      <c r="K196" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L196" s="99">
@@ -17971,7 +17980,7 @@
       <c r="B197" s="40" t="s">
         <v>588</v>
       </c>
-      <c r="C197" s="154" t="s">
+      <c r="C197" s="155" t="s">
         <v>589</v>
       </c>
       <c r="D197" s="46" t="s">
@@ -18025,7 +18034,7 @@
       <c r="B198" s="40" t="s">
         <v>588</v>
       </c>
-      <c r="C198" s="154" t="s">
+      <c r="C198" s="155" t="s">
         <v>589</v>
       </c>
       <c r="D198" s="46" t="s">
@@ -18049,7 +18058,7 @@
       <c r="J198" s="28" t="s">
         <v>513</v>
       </c>
-      <c r="K198" s="150" t="s">
+      <c r="K198" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L198" s="48">
@@ -18079,7 +18088,7 @@
       <c r="B199" s="83" t="s">
         <v>588</v>
       </c>
-      <c r="C199" s="153" t="s">
+      <c r="C199" s="154" t="s">
         <v>589</v>
       </c>
       <c r="D199" s="85" t="s">
@@ -18140,7 +18149,7 @@
       <c r="B200" s="40" t="s">
         <v>595</v>
       </c>
-      <c r="C200" s="154" t="s">
+      <c r="C200" s="155" t="s">
         <v>596</v>
       </c>
       <c r="D200" s="46" t="s">
@@ -18164,7 +18173,7 @@
       <c r="J200" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="K200" s="150" t="s">
+      <c r="K200" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L200" s="48">
@@ -18194,7 +18203,7 @@
       <c r="B201" s="40" t="s">
         <v>595</v>
       </c>
-      <c r="C201" s="154" t="s">
+      <c r="C201" s="155" t="s">
         <v>596</v>
       </c>
       <c r="D201" s="46" t="s">
@@ -18248,7 +18257,7 @@
       <c r="B202" s="40" t="s">
         <v>595</v>
       </c>
-      <c r="C202" s="152" t="s">
+      <c r="C202" s="153" t="s">
         <v>596</v>
       </c>
       <c r="D202" s="46" t="s">
@@ -18272,7 +18281,7 @@
       <c r="J202" s="89" t="s">
         <v>513</v>
       </c>
-      <c r="K202" s="150" t="s">
+      <c r="K202" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L202" s="99">
@@ -18302,7 +18311,7 @@
       <c r="B203" s="40" t="s">
         <v>595</v>
       </c>
-      <c r="C203" s="152" t="s">
+      <c r="C203" s="153" t="s">
         <v>596</v>
       </c>
       <c r="D203" s="46" t="s">
@@ -18326,7 +18335,7 @@
       <c r="J203" s="89" t="s">
         <v>506</v>
       </c>
-      <c r="K203" s="150" t="s">
+      <c r="K203" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L203" s="99">
@@ -18356,7 +18365,7 @@
       <c r="B204" s="40" t="s">
         <v>595</v>
       </c>
-      <c r="C204" s="152" t="s">
+      <c r="C204" s="153" t="s">
         <v>596</v>
       </c>
       <c r="D204" s="46" t="s">
@@ -18410,7 +18419,7 @@
       <c r="B205" s="40" t="s">
         <v>595</v>
       </c>
-      <c r="C205" s="152" t="s">
+      <c r="C205" s="153" t="s">
         <v>596</v>
       </c>
       <c r="D205" s="46" t="s">
@@ -18434,7 +18443,7 @@
       <c r="J205" s="28" t="s">
         <v>513</v>
       </c>
-      <c r="K205" s="150" t="s">
+      <c r="K205" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L205" s="48">
@@ -18464,7 +18473,7 @@
       <c r="B206" s="40" t="s">
         <v>595</v>
       </c>
-      <c r="C206" s="152" t="s">
+      <c r="C206" s="153" t="s">
         <v>596</v>
       </c>
       <c r="D206" s="46" t="s">
@@ -18521,7 +18530,7 @@
       <c r="B207" s="40" t="s">
         <v>595</v>
       </c>
-      <c r="C207" s="152" t="s">
+      <c r="C207" s="153" t="s">
         <v>596</v>
       </c>
       <c r="D207" s="46" t="s">
@@ -18545,7 +18554,7 @@
       <c r="J207" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="K207" s="150" t="s">
+      <c r="K207" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L207" s="48">
@@ -18578,7 +18587,7 @@
       <c r="B208" s="40" t="s">
         <v>604</v>
       </c>
-      <c r="C208" s="152" t="s">
+      <c r="C208" s="153" t="s">
         <v>605</v>
       </c>
       <c r="D208" s="46" t="s">
@@ -18602,7 +18611,7 @@
       <c r="J208" s="28" t="s">
         <v>610</v>
       </c>
-      <c r="K208" s="150" t="s">
+      <c r="K208" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L208" s="48">
@@ -18632,7 +18641,7 @@
       <c r="B209" s="40" t="s">
         <v>604</v>
       </c>
-      <c r="C209" s="154" t="s">
+      <c r="C209" s="155" t="s">
         <v>611</v>
       </c>
       <c r="D209" s="46" t="s">
@@ -18656,7 +18665,7 @@
       <c r="J209" s="28" t="s">
         <v>614</v>
       </c>
-      <c r="K209" s="150" t="s">
+      <c r="K209" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L209" s="48" t="s">
@@ -18689,7 +18698,7 @@
       <c r="B210" s="40" t="s">
         <v>604</v>
       </c>
-      <c r="C210" s="154" t="s">
+      <c r="C210" s="155" t="s">
         <v>611</v>
       </c>
       <c r="D210" s="46" t="s">
@@ -18713,7 +18722,7 @@
       <c r="J210" s="28" t="s">
         <v>618</v>
       </c>
-      <c r="K210" s="150" t="s">
+      <c r="K210" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L210" s="48" t="s">
@@ -18743,7 +18752,7 @@
       <c r="B211" s="106" t="s">
         <v>619</v>
       </c>
-      <c r="C211" s="154" t="s">
+      <c r="C211" s="155" t="s">
         <v>620</v>
       </c>
       <c r="D211" s="46" t="s">
@@ -18785,7 +18794,7 @@
       <c r="B212" s="40" t="s">
         <v>623</v>
       </c>
-      <c r="C212" s="154" t="s">
+      <c r="C212" s="155" t="s">
         <v>624</v>
       </c>
       <c r="D212" s="46" t="s">
@@ -18809,7 +18818,7 @@
       <c r="J212" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="K212" s="155" t="s">
+      <c r="K212" s="156" t="s">
         <v>40</v>
       </c>
       <c r="L212" s="101">
@@ -18839,7 +18848,7 @@
       <c r="B213" s="40" t="s">
         <v>623</v>
       </c>
-      <c r="C213" s="154" t="s">
+      <c r="C213" s="155" t="s">
         <v>624</v>
       </c>
       <c r="D213" s="46" t="s">
@@ -18863,7 +18872,7 @@
       <c r="J213" s="100" t="s">
         <v>629</v>
       </c>
-      <c r="K213" s="155" t="s">
+      <c r="K213" s="156" t="s">
         <v>40</v>
       </c>
       <c r="L213" s="101" t="s">
@@ -18893,7 +18902,7 @@
       <c r="B214" s="40" t="s">
         <v>623</v>
       </c>
-      <c r="C214" s="154" t="s">
+      <c r="C214" s="155" t="s">
         <v>624</v>
       </c>
       <c r="D214" s="46" t="s">
@@ -18917,7 +18926,7 @@
       <c r="J214" s="100" t="s">
         <v>633</v>
       </c>
-      <c r="K214" s="155" t="s">
+      <c r="K214" s="156" t="s">
         <v>40</v>
       </c>
       <c r="L214" s="101">
@@ -18950,7 +18959,7 @@
       <c r="B215" s="40" t="s">
         <v>623</v>
       </c>
-      <c r="C215" s="154" t="s">
+      <c r="C215" s="155" t="s">
         <v>624</v>
       </c>
       <c r="D215" s="46" t="s">
@@ -18974,7 +18983,7 @@
       <c r="J215" s="100" t="s">
         <v>635</v>
       </c>
-      <c r="K215" s="155" t="s">
+      <c r="K215" s="156" t="s">
         <v>40</v>
       </c>
       <c r="L215" s="101">
@@ -19004,7 +19013,7 @@
       <c r="B216" s="40" t="s">
         <v>623</v>
       </c>
-      <c r="C216" s="154" t="s">
+      <c r="C216" s="155" t="s">
         <v>624</v>
       </c>
       <c r="D216" s="46" t="s">
@@ -19058,7 +19067,7 @@
       <c r="B217" s="40" t="s">
         <v>623</v>
       </c>
-      <c r="C217" s="154" t="s">
+      <c r="C217" s="155" t="s">
         <v>624</v>
       </c>
       <c r="D217" s="46" t="s">
@@ -19082,7 +19091,7 @@
       <c r="J217" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="K217" s="155" t="s">
+      <c r="K217" s="156" t="s">
         <v>40</v>
       </c>
       <c r="L217" s="101">
@@ -19112,7 +19121,7 @@
       <c r="B218" s="40" t="s">
         <v>623</v>
       </c>
-      <c r="C218" s="154" t="s">
+      <c r="C218" s="155" t="s">
         <v>624</v>
       </c>
       <c r="D218" s="46" t="s">
@@ -19166,7 +19175,7 @@
       <c r="B219" s="40" t="s">
         <v>640</v>
       </c>
-      <c r="C219" s="154" t="s">
+      <c r="C219" s="155" t="s">
         <v>641</v>
       </c>
       <c r="D219" s="46" t="s">
@@ -19190,7 +19199,7 @@
       <c r="J219" s="28" t="s">
         <v>646</v>
       </c>
-      <c r="K219" s="150" t="s">
+      <c r="K219" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L219" s="48">
@@ -19220,7 +19229,7 @@
       <c r="B220" s="40" t="s">
         <v>640</v>
       </c>
-      <c r="C220" s="154" t="s">
+      <c r="C220" s="155" t="s">
         <v>641</v>
       </c>
       <c r="D220" s="46" t="s">
@@ -19244,7 +19253,7 @@
       <c r="J220" s="28" t="s">
         <v>648</v>
       </c>
-      <c r="K220" s="150" t="s">
+      <c r="K220" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L220" s="48">
@@ -19274,7 +19283,7 @@
       <c r="B221" s="40" t="s">
         <v>640</v>
       </c>
-      <c r="C221" s="154" t="s">
+      <c r="C221" s="155" t="s">
         <v>641</v>
       </c>
       <c r="D221" s="46" t="s">
@@ -19298,7 +19307,7 @@
       <c r="J221" s="28" t="s">
         <v>646</v>
       </c>
-      <c r="K221" s="150" t="s">
+      <c r="K221" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L221" s="48">
@@ -19328,7 +19337,7 @@
       <c r="B222" s="40" t="s">
         <v>640</v>
       </c>
-      <c r="C222" s="154" t="s">
+      <c r="C222" s="155" t="s">
         <v>641</v>
       </c>
       <c r="D222" s="46" t="s">
@@ -19352,7 +19361,7 @@
       <c r="J222" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="K222" s="150" t="s">
+      <c r="K222" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L222" s="48">
@@ -19382,7 +19391,7 @@
       <c r="B223" s="40" t="s">
         <v>640</v>
       </c>
-      <c r="C223" s="154" t="s">
+      <c r="C223" s="155" t="s">
         <v>641</v>
       </c>
       <c r="D223" s="46" t="s">
@@ -19406,7 +19415,7 @@
       <c r="J223" s="28" t="s">
         <v>646</v>
       </c>
-      <c r="K223" s="150" t="s">
+      <c r="K223" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L223" s="48">
@@ -19436,7 +19445,7 @@
       <c r="B224" s="40" t="s">
         <v>640</v>
       </c>
-      <c r="C224" s="154" t="s">
+      <c r="C224" s="155" t="s">
         <v>641</v>
       </c>
       <c r="D224" s="46" t="s">
@@ -19460,7 +19469,7 @@
       <c r="J224" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="K224" s="150" t="s">
+      <c r="K224" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L224" s="48">
@@ -19490,7 +19499,7 @@
       <c r="B225" s="40" t="s">
         <v>640</v>
       </c>
-      <c r="C225" s="154" t="s">
+      <c r="C225" s="155" t="s">
         <v>641</v>
       </c>
       <c r="D225" s="46" t="s">
@@ -19514,7 +19523,7 @@
       <c r="J225" s="28" t="s">
         <v>646</v>
       </c>
-      <c r="K225" s="150" t="s">
+      <c r="K225" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L225" s="48">
@@ -19547,7 +19556,7 @@
       <c r="B226" s="40" t="s">
         <v>640</v>
       </c>
-      <c r="C226" s="154" t="s">
+      <c r="C226" s="155" t="s">
         <v>641</v>
       </c>
       <c r="D226" s="46" t="s">
@@ -19571,7 +19580,7 @@
       <c r="J226" s="28" t="s">
         <v>646</v>
       </c>
-      <c r="K226" s="150" t="s">
+      <c r="K226" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L226" s="48">
@@ -19601,7 +19610,7 @@
       <c r="B227" s="40" t="s">
         <v>640</v>
       </c>
-      <c r="C227" s="154" t="s">
+      <c r="C227" s="155" t="s">
         <v>641</v>
       </c>
       <c r="D227" s="46" t="s">
@@ -19625,7 +19634,7 @@
       <c r="J227" s="28" t="s">
         <v>648</v>
       </c>
-      <c r="K227" s="150" t="s">
+      <c r="K227" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L227" s="48">
@@ -19655,7 +19664,7 @@
       <c r="B228" s="40" t="s">
         <v>640</v>
       </c>
-      <c r="C228" s="154" t="s">
+      <c r="C228" s="155" t="s">
         <v>641</v>
       </c>
       <c r="D228" s="46" t="s">
@@ -19679,7 +19688,7 @@
       <c r="J228" s="28" t="s">
         <v>646</v>
       </c>
-      <c r="K228" s="150" t="s">
+      <c r="K228" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L228" s="48">
@@ -19709,7 +19718,7 @@
       <c r="B229" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="C229" s="154" t="s">
+      <c r="C229" s="155" t="s">
         <v>660</v>
       </c>
       <c r="D229" s="46" t="s">
@@ -19733,7 +19742,7 @@
       <c r="J229" s="28" t="s">
         <v>454</v>
       </c>
-      <c r="K229" s="150" t="s">
+      <c r="K229" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L229" s="48">
@@ -19763,7 +19772,7 @@
       <c r="B230" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="C230" s="154" t="s">
+      <c r="C230" s="155" t="s">
         <v>660</v>
       </c>
       <c r="D230" s="46" t="s">
@@ -19787,7 +19796,7 @@
       <c r="J230" s="28" t="s">
         <v>667</v>
       </c>
-      <c r="K230" s="150" t="s">
+      <c r="K230" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L230" s="48">
@@ -19817,7 +19826,7 @@
       <c r="B231" s="40" t="s">
         <v>640</v>
       </c>
-      <c r="C231" s="154" t="s">
+      <c r="C231" s="155" t="s">
         <v>641</v>
       </c>
       <c r="D231" s="46" t="s">
@@ -19874,7 +19883,7 @@
       <c r="B232" s="40" t="s">
         <v>671</v>
       </c>
-      <c r="C232" s="154" t="s">
+      <c r="C232" s="155" t="s">
         <v>672</v>
       </c>
       <c r="D232" s="46" t="s">
@@ -19895,7 +19904,7 @@
       <c r="B233" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="C233" s="154" t="s">
+      <c r="C233" s="155" t="s">
         <v>660</v>
       </c>
       <c r="D233" s="46" t="s">
@@ -19949,7 +19958,7 @@
       <c r="B234" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="C234" s="160" t="s">
+      <c r="C234" s="161" t="s">
         <v>678</v>
       </c>
       <c r="D234" s="108" t="s">
@@ -19983,7 +19992,7 @@
       <c r="B235" s="38" t="s">
         <v>680</v>
       </c>
-      <c r="C235" s="160" t="s">
+      <c r="C235" s="161" t="s">
         <v>681</v>
       </c>
       <c r="D235" s="108" t="s">
@@ -20017,7 +20026,7 @@
       <c r="B236" s="38" t="s">
         <v>683</v>
       </c>
-      <c r="C236" s="160" t="s">
+      <c r="C236" s="161" t="s">
         <v>684</v>
       </c>
       <c r="D236" s="108" t="s">
@@ -20375,7 +20384,7 @@
       <c r="B243" s="83" t="s">
         <v>335</v>
       </c>
-      <c r="C243" s="153" t="s">
+      <c r="C243" s="154" t="s">
         <v>336</v>
       </c>
       <c r="D243" s="85" t="s">
@@ -22318,109 +22327,109 @@
         <v>478</v>
       </c>
     </row>
-    <row r="281" s="38" customFormat="1" spans="1:20">
-      <c r="A281" s="60" t="s">
+    <row r="281" s="40" customFormat="1" spans="1:20">
+      <c r="A281" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="B281" s="105" t="s">
+      <c r="B281" s="106" t="s">
         <v>486</v>
       </c>
-      <c r="C281" s="107" t="s">
+      <c r="C281" s="124" t="s">
         <v>487</v>
       </c>
-      <c r="D281" s="108" t="s">
+      <c r="D281" s="46" t="s">
         <v>488</v>
       </c>
-      <c r="E281" s="63" t="s">
-        <v>674</v>
-      </c>
-      <c r="F281" s="63" t="s">
+      <c r="E281" s="86" t="s">
+        <v>320</v>
+      </c>
+      <c r="F281" s="47" t="s">
         <v>489</v>
       </c>
-      <c r="G281" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="H281" s="63" t="s">
+      <c r="G281" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H281" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="I281" s="63" t="s">
+      <c r="I281" s="47" t="s">
         <v>756</v>
       </c>
-      <c r="J281" s="28" t="s">
+      <c r="J281" s="129" t="s">
         <v>414</v>
       </c>
-      <c r="K281" s="75" t="s">
+      <c r="K281" s="73" t="s">
         <v>324</v>
       </c>
-      <c r="L281" s="75" t="s">
+      <c r="L281" s="73" t="s">
         <v>325</v>
       </c>
-      <c r="M281" s="28" t="s">
+      <c r="M281" s="129" t="s">
         <v>339</v>
       </c>
-      <c r="N281" s="28" t="s">
+      <c r="N281" s="129" t="s">
         <v>327</v>
       </c>
-      <c r="O281" s="112" t="s">
+      <c r="O281" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="P281" s="60"/>
-      <c r="Q281" s="60"/>
-      <c r="R281" s="60"/>
-      <c r="S281" s="63"/>
-      <c r="T281" s="60"/>
-    </row>
-    <row r="282" s="38" customFormat="1" spans="1:20">
-      <c r="A282" s="60" t="s">
+      <c r="P281" s="26"/>
+      <c r="Q281" s="26"/>
+      <c r="R281" s="26"/>
+      <c r="S281" s="30"/>
+      <c r="T281" s="26"/>
+    </row>
+    <row r="282" s="40" customFormat="1" spans="1:20">
+      <c r="A282" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="B282" s="38" t="s">
+      <c r="B282" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="C282" s="107" t="s">
+      <c r="C282" s="124" t="s">
         <v>492</v>
       </c>
-      <c r="D282" s="108" t="s">
+      <c r="D282" s="46" t="s">
         <v>493</v>
       </c>
-      <c r="E282" s="63" t="s">
-        <v>674</v>
-      </c>
-      <c r="F282" s="105" t="s">
+      <c r="E282" s="86" t="s">
+        <v>320</v>
+      </c>
+      <c r="F282" s="110" t="s">
         <v>757</v>
       </c>
-      <c r="G282" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="H282" s="63" t="s">
+      <c r="G282" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H282" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="I282" s="63" t="s">
+      <c r="I282" s="47" t="s">
         <v>756</v>
       </c>
-      <c r="J282" s="28" t="s">
+      <c r="J282" s="129" t="s">
         <v>414</v>
       </c>
-      <c r="K282" s="75" t="s">
+      <c r="K282" s="73" t="s">
         <v>324</v>
       </c>
-      <c r="L282" s="75" t="s">
+      <c r="L282" s="73" t="s">
         <v>325</v>
       </c>
-      <c r="M282" s="28" t="s">
+      <c r="M282" s="129" t="s">
         <v>339</v>
       </c>
-      <c r="N282" s="28" t="s">
+      <c r="N282" s="129" t="s">
         <v>327</v>
       </c>
-      <c r="O282" s="112" t="s">
+      <c r="O282" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="P282" s="60"/>
-      <c r="Q282" s="60"/>
-      <c r="R282" s="60"/>
-      <c r="S282" s="63"/>
-      <c r="T282" s="60"/>
+      <c r="P282" s="26"/>
+      <c r="Q282" s="26"/>
+      <c r="R282" s="26"/>
+      <c r="S282" s="30"/>
+      <c r="T282" s="26"/>
     </row>
     <row r="283" spans="1:21">
       <c r="A283" s="40" t="s">
@@ -22453,7 +22462,7 @@
       <c r="J283" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="K283" s="150" t="s">
+      <c r="K283" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L283" s="48">
@@ -22600,7 +22609,7 @@
       <c r="J286" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="K286" s="150" t="s">
+      <c r="K286" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L286" s="48">
@@ -22654,7 +22663,7 @@
       <c r="J287" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="K287" s="150" t="s">
+      <c r="K287" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L287" s="47">
@@ -22709,10 +22718,10 @@
       <c r="J288" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="K288" s="150" t="s">
+      <c r="K288" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="L288" s="162" t="s">
+      <c r="L288" s="163" t="s">
         <v>146</v>
       </c>
       <c r="M288" s="47"/>
@@ -22764,7 +22773,7 @@
       <c r="J289" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="K289" s="150" t="s">
+      <c r="K289" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L289" s="47">
@@ -22819,7 +22828,7 @@
       <c r="J290" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="K290" s="150" t="s">
+      <c r="K290" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L290" s="47">
@@ -22916,7 +22925,7 @@
       <c r="J292" s="28" t="s">
         <v>797</v>
       </c>
-      <c r="K292" s="150" t="s">
+      <c r="K292" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L292" s="48">
@@ -23378,7 +23387,7 @@
       <c r="J302" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="K302" s="150" t="s">
+      <c r="K302" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L302" s="48" t="s">
@@ -23486,7 +23495,7 @@
       <c r="J304" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="K304" s="150" t="s">
+      <c r="K304" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L304" s="48" t="s">
@@ -23510,13 +23519,13 @@
       </c>
     </row>
     <row r="305" s="38" customFormat="1" ht="28.5" spans="1:21">
-      <c r="A305" s="124" t="s">
+      <c r="A305" s="125" t="s">
         <v>758</v>
       </c>
-      <c r="B305" s="124" t="s">
+      <c r="B305" s="125" t="s">
         <v>845</v>
       </c>
-      <c r="C305" s="125" t="s">
+      <c r="C305" s="126" t="s">
         <v>846</v>
       </c>
       <c r="D305" s="111" t="s">
@@ -23525,7 +23534,7 @@
       <c r="E305" s="86" t="s">
         <v>320</v>
       </c>
-      <c r="F305" s="124" t="s">
+      <c r="F305" s="125" t="s">
         <v>848</v>
       </c>
       <c r="G305" s="30" t="s">
@@ -23540,10 +23549,10 @@
       <c r="J305" s="30" t="s">
         <v>837</v>
       </c>
-      <c r="K305" s="129" t="s">
+      <c r="K305" s="130" t="s">
         <v>838</v>
       </c>
-      <c r="L305" s="130" t="s">
+      <c r="L305" s="131" t="s">
         <v>325</v>
       </c>
       <c r="M305" s="30" t="s">
@@ -23553,21 +23562,21 @@
         <v>327</v>
       </c>
       <c r="O305" s="25"/>
-      <c r="P305" s="131"/>
-      <c r="Q305" s="131"/>
-      <c r="R305" s="131"/>
+      <c r="P305" s="132"/>
+      <c r="Q305" s="132"/>
+      <c r="R305" s="132"/>
       <c r="S305" s="30"/>
       <c r="T305" s="26"/>
       <c r="U305" s="40"/>
     </row>
     <row r="306" s="38" customFormat="1" spans="1:21">
-      <c r="A306" s="124" t="s">
+      <c r="A306" s="125" t="s">
         <v>758</v>
       </c>
-      <c r="B306" s="124" t="s">
+      <c r="B306" s="125" t="s">
         <v>845</v>
       </c>
-      <c r="C306" s="125" t="s">
+      <c r="C306" s="126" t="s">
         <v>846</v>
       </c>
       <c r="D306" s="111" t="s">
@@ -23576,7 +23585,7 @@
       <c r="E306" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="F306" s="124" t="s">
+      <c r="F306" s="125" t="s">
         <v>849</v>
       </c>
       <c r="G306" s="30" t="s">
@@ -23591,10 +23600,10 @@
       <c r="J306" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="K306" s="163" t="s">
+      <c r="K306" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="L306" s="130" t="s">
+      <c r="L306" s="131" t="s">
         <v>146</v>
       </c>
       <c r="M306" s="30"/>
@@ -23602,13 +23611,13 @@
       <c r="O306" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="P306" s="131" t="s">
+      <c r="P306" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="Q306" s="131">
+      <c r="Q306" s="132">
         <v>4</v>
       </c>
-      <c r="R306" s="131" t="s">
+      <c r="R306" s="132" t="s">
         <v>41</v>
       </c>
       <c r="S306" s="30"/>
@@ -23616,13 +23625,13 @@
       <c r="U306" s="40"/>
     </row>
     <row r="307" s="44" customFormat="1" ht="28.5" spans="1:21">
-      <c r="A307" s="124" t="s">
+      <c r="A307" s="125" t="s">
         <v>758</v>
       </c>
-      <c r="B307" s="124" t="s">
+      <c r="B307" s="125" t="s">
         <v>845</v>
       </c>
-      <c r="C307" s="125" t="s">
+      <c r="C307" s="126" t="s">
         <v>850</v>
       </c>
       <c r="D307" s="111" t="s">
@@ -23631,7 +23640,7 @@
       <c r="E307" s="86" t="s">
         <v>320</v>
       </c>
-      <c r="F307" s="124" t="s">
+      <c r="F307" s="125" t="s">
         <v>851</v>
       </c>
       <c r="G307" s="30" t="s">
@@ -23646,10 +23655,10 @@
       <c r="J307" s="30" t="s">
         <v>837</v>
       </c>
-      <c r="K307" s="129" t="s">
+      <c r="K307" s="130" t="s">
         <v>838</v>
       </c>
-      <c r="L307" s="130" t="s">
+      <c r="L307" s="131" t="s">
         <v>325</v>
       </c>
       <c r="M307" s="30" t="s">
@@ -23659,21 +23668,21 @@
         <v>327</v>
       </c>
       <c r="O307" s="25"/>
-      <c r="P307" s="131"/>
-      <c r="Q307" s="131"/>
-      <c r="R307" s="131"/>
+      <c r="P307" s="132"/>
+      <c r="Q307" s="132"/>
+      <c r="R307" s="132"/>
       <c r="S307" s="30"/>
       <c r="T307" s="26"/>
       <c r="U307" s="40"/>
     </row>
     <row r="308" s="44" customFormat="1" spans="1:21">
-      <c r="A308" s="124" t="s">
+      <c r="A308" s="125" t="s">
         <v>758</v>
       </c>
-      <c r="B308" s="124" t="s">
+      <c r="B308" s="125" t="s">
         <v>845</v>
       </c>
-      <c r="C308" s="125" t="s">
+      <c r="C308" s="126" t="s">
         <v>850</v>
       </c>
       <c r="D308" s="111" t="s">
@@ -23682,7 +23691,7 @@
       <c r="E308" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="F308" s="124" t="s">
+      <c r="F308" s="125" t="s">
         <v>852</v>
       </c>
       <c r="G308" s="30" t="s">
@@ -23697,10 +23706,10 @@
       <c r="J308" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="K308" s="163" t="s">
+      <c r="K308" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="L308" s="130" t="s">
+      <c r="L308" s="131" t="s">
         <v>146</v>
       </c>
       <c r="M308" s="30"/>
@@ -23708,13 +23717,13 @@
       <c r="O308" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="P308" s="131" t="s">
+      <c r="P308" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="Q308" s="131">
+      <c r="Q308" s="132">
         <v>4</v>
       </c>
-      <c r="R308" s="131" t="s">
+      <c r="R308" s="132" t="s">
         <v>41</v>
       </c>
       <c r="S308" s="30"/>
@@ -23752,7 +23761,7 @@
       <c r="J309" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="K309" s="150" t="s">
+      <c r="K309" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L309" s="48">
@@ -23908,7 +23917,7 @@
       <c r="J312" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="K312" s="150" t="s">
+      <c r="K312" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L312" s="48">
@@ -24064,7 +24073,7 @@
       <c r="J315" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="K315" s="150" t="s">
+      <c r="K315" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L315" s="48">
@@ -24121,10 +24130,10 @@
       <c r="K316" s="99" t="s">
         <v>446</v>
       </c>
-      <c r="L316" s="132" t="s">
+      <c r="L316" s="133" t="s">
         <v>895</v>
       </c>
-      <c r="M316" s="133" t="s">
+      <c r="M316" s="134" t="s">
         <v>725</v>
       </c>
       <c r="N316" s="89" t="s">
@@ -24172,10 +24181,10 @@
       <c r="K317" s="99" t="s">
         <v>901</v>
       </c>
-      <c r="L317" s="132" t="s">
+      <c r="L317" s="133" t="s">
         <v>895</v>
       </c>
-      <c r="M317" s="133" t="s">
+      <c r="M317" s="134" t="s">
         <v>725</v>
       </c>
       <c r="N317" s="89" t="s">
@@ -24298,7 +24307,7 @@
       <c r="B320" s="106" t="s">
         <v>906</v>
       </c>
-      <c r="C320" s="126" t="s">
+      <c r="C320" s="124" t="s">
         <v>907</v>
       </c>
       <c r="D320" s="46" t="s">
@@ -24322,7 +24331,7 @@
       <c r="J320" s="47" t="s">
         <v>910</v>
       </c>
-      <c r="K320" s="150" t="s">
+      <c r="K320" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L320" s="73">
@@ -24377,7 +24386,7 @@
       <c r="J321" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="K321" s="150" t="s">
+      <c r="K321" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L321" s="48">
@@ -24533,7 +24542,7 @@
       <c r="J324" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="K324" s="150" t="s">
+      <c r="K324" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L324" s="48">
@@ -24673,7 +24682,7 @@
       <c r="J327" s="28" t="s">
         <v>797</v>
       </c>
-      <c r="K327" s="150" t="s">
+      <c r="K327" s="151" t="s">
         <v>945</v>
       </c>
       <c r="L327" s="48" t="s">
@@ -24728,7 +24737,7 @@
       <c r="J328" s="28" t="s">
         <v>797</v>
       </c>
-      <c r="K328" s="150" t="s">
+      <c r="K328" s="151" t="s">
         <v>949</v>
       </c>
       <c r="L328" s="48" t="s">
@@ -24783,7 +24792,7 @@
       <c r="J329" s="28" t="s">
         <v>797</v>
       </c>
-      <c r="K329" s="150" t="s">
+      <c r="K329" s="151" t="s">
         <v>949</v>
       </c>
       <c r="L329" s="48" t="s">
@@ -24838,7 +24847,7 @@
       <c r="J330" s="28" t="s">
         <v>797</v>
       </c>
-      <c r="K330" s="150" t="s">
+      <c r="K330" s="151" t="s">
         <v>949</v>
       </c>
       <c r="L330" s="48" t="s">
@@ -24869,7 +24878,7 @@
       <c r="B331" s="40" t="s">
         <v>939</v>
       </c>
-      <c r="C331" s="134" t="s">
+      <c r="C331" s="135" t="s">
         <v>940</v>
       </c>
       <c r="D331" s="46" t="s">
@@ -24893,7 +24902,7 @@
       <c r="J331" s="89" t="s">
         <v>220</v>
       </c>
-      <c r="K331" s="150" t="s">
+      <c r="K331" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L331" s="99">
@@ -24926,7 +24935,7 @@
       <c r="B332" s="40" t="s">
         <v>954</v>
       </c>
-      <c r="C332" s="154" t="s">
+      <c r="C332" s="155" t="s">
         <v>955</v>
       </c>
       <c r="D332" s="46" t="s">
@@ -24950,7 +24959,7 @@
       <c r="J332" s="28" t="s">
         <v>960</v>
       </c>
-      <c r="K332" s="150" t="s">
+      <c r="K332" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L332" s="48" t="s">
@@ -24981,7 +24990,7 @@
       <c r="B333" s="40" t="s">
         <v>954</v>
       </c>
-      <c r="C333" s="154" t="s">
+      <c r="C333" s="155" t="s">
         <v>955</v>
       </c>
       <c r="D333" s="46" t="s">
@@ -25079,7 +25088,7 @@
       <c r="B335" s="40" t="s">
         <v>968</v>
       </c>
-      <c r="C335" s="154" t="s">
+      <c r="C335" s="155" t="s">
         <v>969</v>
       </c>
       <c r="D335" s="46" t="s">
@@ -25220,22 +25229,22 @@
       <c r="F338" s="47" t="s">
         <v>984</v>
       </c>
-      <c r="G338" s="135" t="s">
-        <v>28</v>
-      </c>
-      <c r="H338" s="135" t="s">
-        <v>28</v>
-      </c>
-      <c r="I338" s="135" t="s">
+      <c r="G338" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="H338" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="I338" s="136" t="s">
         <v>985</v>
       </c>
-      <c r="J338" s="135" t="s">
+      <c r="J338" s="136" t="s">
         <v>220</v>
       </c>
-      <c r="K338" s="140" t="s">
+      <c r="K338" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="L338" s="140">
+      <c r="L338" s="141">
         <v>0</v>
       </c>
       <c r="O338" s="25" t="s">
@@ -25275,22 +25284,22 @@
       <c r="F339" s="47" t="s">
         <v>984</v>
       </c>
-      <c r="G339" s="135" t="s">
-        <v>28</v>
-      </c>
-      <c r="H339" s="135" t="s">
-        <v>28</v>
-      </c>
-      <c r="I339" s="135" t="s">
+      <c r="G339" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="H339" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="I339" s="136" t="s">
         <v>444</v>
       </c>
-      <c r="J339" s="135" t="s">
+      <c r="J339" s="136" t="s">
         <v>194</v>
       </c>
-      <c r="K339" s="140" t="s">
+      <c r="K339" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="L339" s="140">
+      <c r="L339" s="141">
         <v>5</v>
       </c>
       <c r="O339" s="25" t="s">
@@ -25330,22 +25339,22 @@
       <c r="F340" s="47" t="s">
         <v>990</v>
       </c>
-      <c r="G340" s="135" t="s">
-        <v>28</v>
-      </c>
-      <c r="H340" s="135" t="s">
-        <v>28</v>
-      </c>
-      <c r="I340" s="135" t="s">
+      <c r="G340" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="H340" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="I340" s="136" t="s">
         <v>991</v>
       </c>
-      <c r="J340" s="135" t="s">
+      <c r="J340" s="136" t="s">
         <v>359</v>
       </c>
-      <c r="K340" s="140" t="s">
+      <c r="K340" s="141" t="s">
         <v>223</v>
       </c>
-      <c r="L340" s="140" t="s">
+      <c r="L340" s="141" t="s">
         <v>992</v>
       </c>
       <c r="O340" s="25" t="s">
@@ -25385,22 +25394,22 @@
       <c r="F341" s="47" t="s">
         <v>994</v>
       </c>
-      <c r="G341" s="135" t="s">
-        <v>28</v>
-      </c>
-      <c r="H341" s="135" t="s">
-        <v>28</v>
-      </c>
-      <c r="I341" s="135" t="s">
+      <c r="G341" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="H341" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="I341" s="136" t="s">
         <v>780</v>
       </c>
-      <c r="J341" s="135" t="s">
+      <c r="J341" s="136" t="s">
         <v>797</v>
       </c>
-      <c r="K341" s="140" t="s">
+      <c r="K341" s="141" t="s">
         <v>223</v>
       </c>
-      <c r="L341" s="140" t="s">
+      <c r="L341" s="141" t="s">
         <v>995</v>
       </c>
       <c r="O341" s="25" t="s">
@@ -25452,7 +25461,7 @@
       <c r="J342" s="28" t="s">
         <v>1002</v>
       </c>
-      <c r="K342" s="150" t="s">
+      <c r="K342" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L342" s="48">
@@ -25507,7 +25516,7 @@
       <c r="J343" s="28" t="s">
         <v>999</v>
       </c>
-      <c r="K343" s="150" t="s">
+      <c r="K343" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L343" s="48">
@@ -25562,7 +25571,7 @@
       <c r="J344" s="28" t="s">
         <v>1014</v>
       </c>
-      <c r="K344" s="150" t="s">
+      <c r="K344" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L344" s="48">
@@ -25617,7 +25626,7 @@
       <c r="J345" s="28" t="s">
         <v>1019</v>
       </c>
-      <c r="K345" s="150" t="s">
+      <c r="K345" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L345" s="48">
@@ -25672,7 +25681,7 @@
       <c r="J346" s="28" t="s">
         <v>1024</v>
       </c>
-      <c r="K346" s="150" t="s">
+      <c r="K346" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L346" s="48">
@@ -25727,7 +25736,7 @@
       <c r="J347" s="28" t="s">
         <v>1030</v>
       </c>
-      <c r="K347" s="150" t="s">
+      <c r="K347" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L347" s="48">
@@ -25782,7 +25791,7 @@
       <c r="J348" s="28" t="s">
         <v>1034</v>
       </c>
-      <c r="K348" s="150" t="s">
+      <c r="K348" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L348" s="48">
@@ -25837,7 +25846,7 @@
       <c r="J349" s="28" t="s">
         <v>1028</v>
       </c>
-      <c r="K349" s="150" t="s">
+      <c r="K349" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L349" s="48">
@@ -25892,7 +25901,7 @@
       <c r="J350" s="28" t="s">
         <v>1028</v>
       </c>
-      <c r="K350" s="150" t="s">
+      <c r="K350" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L350" s="48">
@@ -25947,7 +25956,7 @@
       <c r="J351" s="28" t="s">
         <v>1028</v>
       </c>
-      <c r="K351" s="150" t="s">
+      <c r="K351" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L351" s="48">
@@ -26002,7 +26011,7 @@
       <c r="J352" s="28" t="s">
         <v>1028</v>
       </c>
-      <c r="K352" s="150" t="s">
+      <c r="K352" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L352" s="48">
@@ -26045,22 +26054,22 @@
       <c r="F353" s="47" t="s">
         <v>1050</v>
       </c>
-      <c r="G353" s="135" t="s">
-        <v>28</v>
-      </c>
-      <c r="H353" s="135" t="s">
-        <v>28</v>
-      </c>
-      <c r="I353" s="135" t="s">
+      <c r="G353" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="H353" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="I353" s="136" t="s">
         <v>985</v>
       </c>
-      <c r="J353" s="135" t="s">
+      <c r="J353" s="136" t="s">
         <v>220</v>
       </c>
-      <c r="K353" s="140" t="s">
+      <c r="K353" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="L353" s="140">
+      <c r="L353" s="141">
         <v>0</v>
       </c>
       <c r="O353" s="25" t="s">
@@ -26100,22 +26109,22 @@
       <c r="F354" s="47" t="s">
         <v>1050</v>
       </c>
-      <c r="G354" s="135" t="s">
-        <v>28</v>
-      </c>
-      <c r="H354" s="135" t="s">
-        <v>28</v>
-      </c>
-      <c r="I354" s="135" t="s">
+      <c r="G354" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="H354" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="I354" s="136" t="s">
         <v>1051</v>
       </c>
-      <c r="J354" s="135" t="s">
+      <c r="J354" s="136" t="s">
         <v>1052</v>
       </c>
-      <c r="K354" s="140" t="s">
+      <c r="K354" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="L354" s="140"/>
+      <c r="L354" s="141"/>
       <c r="O354" s="25" t="s">
         <v>75</v>
       </c>
@@ -26184,7 +26193,7 @@
       <c r="B356" s="40" t="s">
         <v>1058</v>
       </c>
-      <c r="C356" s="136" t="s">
+      <c r="C356" s="137" t="s">
         <v>1059</v>
       </c>
       <c r="D356" s="46" t="s">
@@ -26204,8 +26213,8 @@
       </c>
       <c r="I356" s="30"/>
       <c r="J356" s="30"/>
-      <c r="K356" s="130"/>
-      <c r="L356" s="130"/>
+      <c r="K356" s="131"/>
+      <c r="L356" s="131"/>
       <c r="M356" s="30"/>
       <c r="N356" s="30"/>
       <c r="O356" s="25" t="s">
@@ -26232,7 +26241,7 @@
       <c r="B357" s="40" t="s">
         <v>1062</v>
       </c>
-      <c r="C357" s="136" t="s">
+      <c r="C357" s="137" t="s">
         <v>1063</v>
       </c>
       <c r="D357" s="31" t="s">
@@ -26250,16 +26259,16 @@
       <c r="H357" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I357" s="141" t="s">
+      <c r="I357" s="142" t="s">
         <v>1067</v>
       </c>
       <c r="J357" s="30" t="s">
         <v>1068</v>
       </c>
-      <c r="K357" s="130" t="s">
+      <c r="K357" s="131" t="s">
         <v>223</v>
       </c>
-      <c r="L357" s="130" t="s">
+      <c r="L357" s="131" t="s">
         <v>1069</v>
       </c>
       <c r="M357" s="30"/>
@@ -26288,7 +26297,7 @@
       <c r="B358" s="40" t="s">
         <v>1062</v>
       </c>
-      <c r="C358" s="136" t="s">
+      <c r="C358" s="137" t="s">
         <v>1071</v>
       </c>
       <c r="D358" s="31" t="s">
@@ -26306,16 +26315,16 @@
       <c r="H358" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I358" s="141" t="s">
+      <c r="I358" s="142" t="s">
         <v>1067</v>
       </c>
       <c r="J358" s="30" t="s">
         <v>1068</v>
       </c>
-      <c r="K358" s="130" t="s">
+      <c r="K358" s="131" t="s">
         <v>223</v>
       </c>
-      <c r="L358" s="130" t="s">
+      <c r="L358" s="131" t="s">
         <v>1069</v>
       </c>
       <c r="M358" s="30"/>
@@ -26344,7 +26353,7 @@
       <c r="B359" s="40" t="s">
         <v>1062</v>
       </c>
-      <c r="C359" s="136" t="s">
+      <c r="C359" s="137" t="s">
         <v>1073</v>
       </c>
       <c r="D359" s="31" t="s">
@@ -26362,16 +26371,16 @@
       <c r="H359" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I359" s="141" t="s">
+      <c r="I359" s="142" t="s">
         <v>1067</v>
       </c>
       <c r="J359" s="30" t="s">
         <v>1068</v>
       </c>
-      <c r="K359" s="130" t="s">
+      <c r="K359" s="131" t="s">
         <v>223</v>
       </c>
-      <c r="L359" s="130" t="s">
+      <c r="L359" s="131" t="s">
         <v>1069</v>
       </c>
       <c r="M359" s="30"/>
@@ -26400,7 +26409,7 @@
       <c r="B360" s="40" t="s">
         <v>1062</v>
       </c>
-      <c r="C360" s="136" t="s">
+      <c r="C360" s="137" t="s">
         <v>1063</v>
       </c>
       <c r="D360" s="46" t="s">
@@ -26418,16 +26427,16 @@
       <c r="H360" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I360" s="141" t="s">
+      <c r="I360" s="142" t="s">
         <v>666</v>
       </c>
       <c r="J360" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="K360" s="163" t="s">
+      <c r="K360" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="L360" s="130" t="s">
+      <c r="L360" s="131" t="s">
         <v>146</v>
       </c>
       <c r="M360" s="30"/>
@@ -26456,7 +26465,7 @@
       <c r="B361" s="40" t="s">
         <v>1062</v>
       </c>
-      <c r="C361" s="136" t="s">
+      <c r="C361" s="137" t="s">
         <v>1063</v>
       </c>
       <c r="D361" s="46" t="s">
@@ -26474,16 +26483,16 @@
       <c r="H361" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I361" s="141" t="s">
+      <c r="I361" s="142" t="s">
         <v>1067</v>
       </c>
       <c r="J361" s="30" t="s">
         <v>1068</v>
       </c>
-      <c r="K361" s="163" t="s">
+      <c r="K361" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="L361" s="130" t="s">
+      <c r="L361" s="131" t="s">
         <v>1077</v>
       </c>
       <c r="M361" s="30"/>
@@ -26512,7 +26521,7 @@
       <c r="B362" s="40" t="s">
         <v>1062</v>
       </c>
-      <c r="C362" s="136" t="s">
+      <c r="C362" s="137" t="s">
         <v>1071</v>
       </c>
       <c r="D362" s="46" t="s">
@@ -26530,16 +26539,16 @@
       <c r="H362" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I362" s="141" t="s">
+      <c r="I362" s="142" t="s">
         <v>666</v>
       </c>
       <c r="J362" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="K362" s="163" t="s">
+      <c r="K362" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="L362" s="130" t="s">
+      <c r="L362" s="131" t="s">
         <v>146</v>
       </c>
       <c r="M362" s="30"/>
@@ -26568,7 +26577,7 @@
       <c r="B363" s="40" t="s">
         <v>1062</v>
       </c>
-      <c r="C363" s="136" t="s">
+      <c r="C363" s="137" t="s">
         <v>1071</v>
       </c>
       <c r="D363" s="46" t="s">
@@ -26586,16 +26595,16 @@
       <c r="H363" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I363" s="141" t="s">
+      <c r="I363" s="142" t="s">
         <v>1067</v>
       </c>
       <c r="J363" s="30" t="s">
         <v>1068</v>
       </c>
-      <c r="K363" s="163" t="s">
+      <c r="K363" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="L363" s="130" t="s">
+      <c r="L363" s="131" t="s">
         <v>1077</v>
       </c>
       <c r="M363" s="30"/>
@@ -26624,7 +26633,7 @@
       <c r="B364" s="40" t="s">
         <v>1062</v>
       </c>
-      <c r="C364" s="136" t="s">
+      <c r="C364" s="137" t="s">
         <v>1073</v>
       </c>
       <c r="D364" s="46" t="s">
@@ -26642,16 +26651,16 @@
       <c r="H364" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I364" s="141" t="s">
+      <c r="I364" s="142" t="s">
         <v>666</v>
       </c>
       <c r="J364" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="K364" s="163" t="s">
+      <c r="K364" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="L364" s="130" t="s">
+      <c r="L364" s="131" t="s">
         <v>146</v>
       </c>
       <c r="M364" s="30"/>
@@ -26680,7 +26689,7 @@
       <c r="B365" s="40" t="s">
         <v>1062</v>
       </c>
-      <c r="C365" s="136" t="s">
+      <c r="C365" s="137" t="s">
         <v>1073</v>
       </c>
       <c r="D365" s="46" t="s">
@@ -26698,16 +26707,16 @@
       <c r="H365" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I365" s="141" t="s">
+      <c r="I365" s="142" t="s">
         <v>1067</v>
       </c>
       <c r="J365" s="30" t="s">
         <v>1068</v>
       </c>
-      <c r="K365" s="163" t="s">
+      <c r="K365" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="L365" s="130" t="s">
+      <c r="L365" s="131" t="s">
         <v>1077</v>
       </c>
       <c r="M365" s="30"/>
@@ -26736,7 +26745,7 @@
       <c r="B366" s="40" t="s">
         <v>1080</v>
       </c>
-      <c r="C366" s="136" t="s">
+      <c r="C366" s="137" t="s">
         <v>1081</v>
       </c>
       <c r="D366" s="46" t="s">
@@ -26756,8 +26765,8 @@
       </c>
       <c r="I366" s="30"/>
       <c r="J366" s="30"/>
-      <c r="K366" s="130"/>
-      <c r="L366" s="130"/>
+      <c r="K366" s="131"/>
+      <c r="L366" s="131"/>
       <c r="M366" s="30"/>
       <c r="N366" s="30"/>
       <c r="O366" s="25" t="s">
@@ -26784,7 +26793,7 @@
       <c r="B367" s="40" t="s">
         <v>1085</v>
       </c>
-      <c r="C367" s="136" t="s">
+      <c r="C367" s="137" t="s">
         <v>1086</v>
       </c>
       <c r="D367" s="46" t="s">
@@ -26804,8 +26813,8 @@
       </c>
       <c r="I367" s="30"/>
       <c r="J367" s="30"/>
-      <c r="K367" s="130"/>
-      <c r="L367" s="130"/>
+      <c r="K367" s="131"/>
+      <c r="L367" s="131"/>
       <c r="M367" s="30"/>
       <c r="N367" s="30"/>
       <c r="O367" s="25" t="s">
@@ -26832,7 +26841,7 @@
       <c r="B368" s="40" t="s">
         <v>1089</v>
       </c>
-      <c r="C368" s="164" t="s">
+      <c r="C368" s="165" t="s">
         <v>1090</v>
       </c>
       <c r="D368" s="46" t="s">
@@ -26856,7 +26865,7 @@
       <c r="J368" s="30" t="s">
         <v>1094</v>
       </c>
-      <c r="K368" s="163" t="s">
+      <c r="K368" s="164" t="s">
         <v>40</v>
       </c>
       <c r="L368" s="30">
@@ -26888,7 +26897,7 @@
       <c r="B369" s="40" t="s">
         <v>1095</v>
       </c>
-      <c r="C369" s="164" t="s">
+      <c r="C369" s="165" t="s">
         <v>1096</v>
       </c>
       <c r="D369" s="46" t="s">
@@ -26912,7 +26921,7 @@
       <c r="J369" s="30" t="s">
         <v>1094</v>
       </c>
-      <c r="K369" s="163" t="s">
+      <c r="K369" s="164" t="s">
         <v>40</v>
       </c>
       <c r="L369" s="30">
@@ -26944,7 +26953,7 @@
       <c r="B370" s="40" t="s">
         <v>1100</v>
       </c>
-      <c r="C370" s="165" t="s">
+      <c r="C370" s="166" t="s">
         <v>1101</v>
       </c>
       <c r="D370" s="40" t="s">
@@ -26993,7 +27002,7 @@
       <c r="B371" s="40" t="s">
         <v>1105</v>
       </c>
-      <c r="C371" s="165" t="s">
+      <c r="C371" s="166" t="s">
         <v>1106</v>
       </c>
       <c r="D371" s="40" t="s">
@@ -27042,7 +27051,7 @@
       <c r="B372" s="40" t="s">
         <v>1109</v>
       </c>
-      <c r="C372" s="137" t="s">
+      <c r="C372" s="138" t="s">
         <v>1110</v>
       </c>
       <c r="D372" s="40" t="s">
@@ -27066,7 +27075,7 @@
       <c r="J372" s="89" t="s">
         <v>1115</v>
       </c>
-      <c r="K372" s="166" t="s">
+      <c r="K372" s="167" t="s">
         <v>40</v>
       </c>
       <c r="L372" s="99">
@@ -27099,7 +27108,7 @@
       <c r="B373" s="40" t="s">
         <v>1109</v>
       </c>
-      <c r="C373" s="137" t="s">
+      <c r="C373" s="138" t="s">
         <v>1110</v>
       </c>
       <c r="D373" s="40" t="s">
@@ -27123,7 +27132,7 @@
       <c r="J373" s="89" t="s">
         <v>220</v>
       </c>
-      <c r="K373" s="166" t="s">
+      <c r="K373" s="167" t="s">
         <v>40</v>
       </c>
       <c r="L373" s="99" t="s">
@@ -27156,7 +27165,7 @@
       <c r="B374" s="40" t="s">
         <v>1109</v>
       </c>
-      <c r="C374" s="137" t="s">
+      <c r="C374" s="138" t="s">
         <v>1110</v>
       </c>
       <c r="D374" s="40" t="s">
@@ -27213,7 +27222,7 @@
       <c r="B375" s="40" t="s">
         <v>1109</v>
       </c>
-      <c r="C375" s="137" t="s">
+      <c r="C375" s="138" t="s">
         <v>1123</v>
       </c>
       <c r="D375" s="40" t="s">
@@ -27262,7 +27271,7 @@
       <c r="B376" s="40" t="s">
         <v>1109</v>
       </c>
-      <c r="C376" s="137" t="s">
+      <c r="C376" s="138" t="s">
         <v>1126</v>
       </c>
       <c r="D376" s="40" t="s">
@@ -27308,13 +27317,13 @@
       <c r="A377" s="106" t="s">
         <v>1099</v>
       </c>
-      <c r="B377" s="124" t="s">
+      <c r="B377" s="125" t="s">
         <v>1129</v>
       </c>
       <c r="C377" s="97" t="s">
         <v>1130</v>
       </c>
-      <c r="D377" s="138" t="s">
+      <c r="D377" s="139" t="s">
         <v>1131</v>
       </c>
       <c r="E377" s="30" t="s">
@@ -27351,13 +27360,13 @@
       <c r="A378" s="40" t="s">
         <v>1099</v>
       </c>
-      <c r="B378" s="124" t="s">
+      <c r="B378" s="125" t="s">
         <v>1129</v>
       </c>
       <c r="C378" s="123" t="s">
         <v>1134</v>
       </c>
-      <c r="D378" s="138" t="s">
+      <c r="D378" s="139" t="s">
         <v>1131</v>
       </c>
       <c r="E378" s="30" t="s">
@@ -27399,13 +27408,13 @@
       <c r="A379" s="40" t="s">
         <v>1099</v>
       </c>
-      <c r="B379" s="124" t="s">
+      <c r="B379" s="125" t="s">
         <v>1129</v>
       </c>
       <c r="C379" s="123" t="s">
         <v>1137</v>
       </c>
-      <c r="D379" s="138" t="s">
+      <c r="D379" s="139" t="s">
         <v>1131</v>
       </c>
       <c r="E379" s="30" t="s">
@@ -27450,7 +27459,7 @@
       <c r="B380" s="40" t="s">
         <v>1140</v>
       </c>
-      <c r="C380" s="165" t="s">
+      <c r="C380" s="166" t="s">
         <v>1141</v>
       </c>
       <c r="D380" s="40" t="s">
@@ -27542,7 +27551,7 @@
       <c r="B382" s="40" t="s">
         <v>1149</v>
       </c>
-      <c r="C382" s="154" t="s">
+      <c r="C382" s="155" t="s">
         <v>1150</v>
       </c>
       <c r="D382" s="40" t="s">
@@ -27585,7 +27594,7 @@
       <c r="B383" s="40" t="s">
         <v>1154</v>
       </c>
-      <c r="C383" s="165" t="s">
+      <c r="C383" s="166" t="s">
         <v>1155</v>
       </c>
       <c r="D383" s="40" t="s">
@@ -27637,7 +27646,7 @@
       <c r="C384" s="97" t="s">
         <v>1159</v>
       </c>
-      <c r="D384" s="139" t="s">
+      <c r="D384" s="140" t="s">
         <v>1160</v>
       </c>
       <c r="E384" s="30" t="s">
@@ -27743,7 +27752,7 @@
       <c r="J386" s="28" t="s">
         <v>1172</v>
       </c>
-      <c r="K386" s="166" t="s">
+      <c r="K386" s="167" t="s">
         <v>40</v>
       </c>
       <c r="L386" s="48" t="s">
@@ -27774,7 +27783,7 @@
       <c r="B387" s="40" t="s">
         <v>1173</v>
       </c>
-      <c r="C387" s="165" t="s">
+      <c r="C387" s="166" t="s">
         <v>1174</v>
       </c>
       <c r="D387" s="40" t="s">
@@ -27823,7 +27832,7 @@
       <c r="B388" s="40" t="s">
         <v>1177</v>
       </c>
-      <c r="C388" s="154" t="s">
+      <c r="C388" s="155" t="s">
         <v>1178</v>
       </c>
       <c r="D388" s="40" t="s">
@@ -27866,7 +27875,7 @@
       <c r="B389" s="40" t="s">
         <v>1181</v>
       </c>
-      <c r="C389" s="165" t="s">
+      <c r="C389" s="166" t="s">
         <v>1182</v>
       </c>
       <c r="D389" s="40" t="s">
@@ -27915,7 +27924,7 @@
       <c r="B390" s="106" t="s">
         <v>1186</v>
       </c>
-      <c r="C390" s="142" t="s">
+      <c r="C390" s="143" t="s">
         <v>1187</v>
       </c>
       <c r="D390" s="46" t="s">
@@ -27955,7 +27964,7 @@
       <c r="B391" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="C391" s="142"/>
+      <c r="C391" s="143"/>
       <c r="D391" s="108" t="s">
         <v>179</v>
       </c>
@@ -27987,10 +27996,10 @@
       <c r="A392" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B392" s="143" t="s">
+      <c r="B392" s="144" t="s">
         <v>257</v>
       </c>
-      <c r="C392" s="144" t="s">
+      <c r="C392" s="145" t="s">
         <v>258</v>
       </c>
       <c r="D392" s="46" t="s">
@@ -28014,7 +28023,7 @@
       <c r="J392" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="K392" s="150" t="s">
+      <c r="K392" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L392" s="73" t="s">
@@ -28043,10 +28052,10 @@
       <c r="A393" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B393" s="143" t="s">
+      <c r="B393" s="144" t="s">
         <v>257</v>
       </c>
-      <c r="C393" s="144" t="s">
+      <c r="C393" s="145" t="s">
         <v>258</v>
       </c>
       <c r="D393" s="46"/>
@@ -28124,7 +28133,7 @@
       <c r="J394" s="47" t="s">
         <v>1197</v>
       </c>
-      <c r="K394" s="145" t="s">
+      <c r="K394" s="146" t="s">
         <v>446</v>
       </c>
       <c r="L394" s="73" t="s">
@@ -28277,7 +28286,7 @@
       <c r="J397" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="K397" s="150" t="s">
+      <c r="K397" s="151" t="s">
         <v>40</v>
       </c>
       <c r="L397" s="73" t="s">
@@ -28328,7 +28337,7 @@
       <c r="J398" s="47" t="s">
         <v>580</v>
       </c>
-      <c r="K398" s="155" t="s">
+      <c r="K398" s="156" t="s">
         <v>40</v>
       </c>
       <c r="L398" s="73" t="s">
@@ -28378,13 +28387,13 @@
       <c r="H399" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="I399" s="146" t="s">
+      <c r="I399" s="147" t="s">
         <v>1013</v>
       </c>
       <c r="J399" s="28" t="s">
         <v>1212</v>
       </c>
-      <c r="K399" s="155" t="s">
+      <c r="K399" s="156" t="s">
         <v>40</v>
       </c>
       <c r="L399" s="48" t="s">
@@ -28416,7 +28425,7 @@
       <c r="B400" s="40" t="s">
         <v>1213</v>
       </c>
-      <c r="C400" s="137" t="s">
+      <c r="C400" s="138" t="s">
         <v>1214</v>
       </c>
       <c r="D400" s="40" t="s">
@@ -28465,7 +28474,7 @@
       <c r="B401" s="40" t="s">
         <v>1217</v>
       </c>
-      <c r="C401" s="137" t="s">
+      <c r="C401" s="138" t="s">
         <v>1218</v>
       </c>
       <c r="D401" s="40" t="s">
@@ -28514,7 +28523,7 @@
       <c r="B402" s="40" t="s">
         <v>1221</v>
       </c>
-      <c r="C402" s="137" t="s">
+      <c r="C402" s="138" t="s">
         <v>1222</v>
       </c>
       <c r="D402" s="40" t="s">
@@ -28563,7 +28572,7 @@
       <c r="B403" s="40" t="s">
         <v>1225</v>
       </c>
-      <c r="C403" s="137" t="s">
+      <c r="C403" s="138" t="s">
         <v>1226</v>
       </c>
       <c r="D403" s="40" t="s">
@@ -28612,7 +28621,7 @@
       <c r="B404" s="40" t="s">
         <v>1229</v>
       </c>
-      <c r="C404" s="137" t="s">
+      <c r="C404" s="138" t="s">
         <v>1230</v>
       </c>
       <c r="D404" s="40" t="s">
@@ -28661,7 +28670,7 @@
       <c r="B405" s="40" t="s">
         <v>1233</v>
       </c>
-      <c r="C405" s="137" t="s">
+      <c r="C405" s="138" t="s">
         <v>1234</v>
       </c>
       <c r="D405" s="40" t="s">
@@ -28710,7 +28719,7 @@
       <c r="B406" s="40" t="s">
         <v>1237</v>
       </c>
-      <c r="C406" s="137" t="s">
+      <c r="C406" s="138" t="s">
         <v>1238</v>
       </c>
       <c r="D406" s="40" t="s">
@@ -28759,7 +28768,7 @@
       <c r="B407" s="40" t="s">
         <v>1241</v>
       </c>
-      <c r="C407" s="137" t="s">
+      <c r="C407" s="138" t="s">
         <v>1242</v>
       </c>
       <c r="D407" s="40" t="s">
@@ -28808,7 +28817,7 @@
       <c r="B408" s="40" t="s">
         <v>1245</v>
       </c>
-      <c r="C408" s="137" t="s">
+      <c r="C408" s="138" t="s">
         <v>1246</v>
       </c>
       <c r="D408" s="40" t="s">
@@ -28857,7 +28866,7 @@
       <c r="B409" s="40" t="s">
         <v>1249</v>
       </c>
-      <c r="C409" s="137" t="s">
+      <c r="C409" s="138" t="s">
         <v>1250</v>
       </c>
       <c r="D409" s="40" t="s">
@@ -28906,7 +28915,7 @@
       <c r="B410" s="40" t="s">
         <v>1253</v>
       </c>
-      <c r="C410" s="137" t="s">
+      <c r="C410" s="138" t="s">
         <v>1254</v>
       </c>
       <c r="D410" s="40" t="s">
@@ -28955,7 +28964,7 @@
       <c r="B411" s="40" t="s">
         <v>1257</v>
       </c>
-      <c r="C411" s="137" t="s">
+      <c r="C411" s="138" t="s">
         <v>1258</v>
       </c>
       <c r="D411" s="40" t="s">
@@ -29341,7 +29350,7 @@
       <c r="B419" s="40" t="s">
         <v>1289</v>
       </c>
-      <c r="C419" s="167" t="s">
+      <c r="C419" s="168" t="s">
         <v>1290</v>
       </c>
       <c r="D419" s="40" t="s">
@@ -29635,7 +29644,7 @@
       <c r="B425" s="26" t="s">
         <v>1313</v>
       </c>
-      <c r="C425" s="147" t="s">
+      <c r="C425" s="148" t="s">
         <v>1314</v>
       </c>
       <c r="D425" s="31" t="s">
@@ -29701,10 +29710,10 @@
       <c r="G426" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="H426" s="135" t="s">
-        <v>28</v>
-      </c>
-      <c r="I426" s="135" t="s">
+      <c r="H426" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="I426" s="136" t="s">
         <v>1322</v>
       </c>
       <c r="J426" s="28" t="s">
@@ -30598,10 +30607,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="K306 K1:K304 K308:K341 K342:K1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O82 O425 O2:O9 O13:O15 O24:O30 O34:O35">
       <formula1>"是,否"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="K306 K1:K304 K308:K341 K342:K1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G426 G1:H90 G92:H337 G427:H1048576 G355:H425 G342:H352">
       <formula1>"0-是,1-否"</formula1>
     </dataValidation>
